--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="539">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1214,6 +1162,9 @@
   </si>
   <si>
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codified order entry details which are based on order context.</t>
@@ -1889,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1899,7 +1850,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3082,11 +3033,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3095,10 +3048,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3107,13 +3060,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3164,19 +3117,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -3185,7 +3138,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -3196,24 +3149,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3222,13 +3175,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3264,19 +3221,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3297,7 +3254,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3308,7 +3265,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3316,31 +3273,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3348,7 +3305,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3378,59 +3335,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3442,18 +3399,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3478,10 +3437,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3490,23 +3449,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3515,34 +3476,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3557,13 +3516,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3590,10 +3549,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3614,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3626,7 +3585,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3635,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3644,15 +3603,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3662,7 +3619,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3671,15 +3628,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3716,19 +3675,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3737,7 +3696,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3749,7 +3708,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3760,18 +3719,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3780,22 +3739,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3820,13 +3779,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3844,28 +3803,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3876,7 +3835,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3887,10 +3846,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3899,18 +3858,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3934,35 +3895,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3971,34 +3934,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -4013,30 +3974,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4072,13 +4035,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -4087,24 +4050,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4112,7 +4075,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -4124,18 +4087,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4148,7 +4113,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4184,7 +4149,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4196,16 +4161,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4216,18 +4181,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4236,20 +4201,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4286,40 +4249,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4330,7 +4293,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4347,26 +4310,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4390,13 +4351,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4414,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4432,10 +4393,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4446,7 +4407,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4457,7 +4418,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4469,20 +4430,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4506,13 +4465,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4530,13 +4489,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4545,13 +4504,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4562,7 +4521,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4570,10 +4529,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4588,29 +4547,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4646,13 +4603,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4661,13 +4618,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4678,18 +4635,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4701,17 +4658,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4724,7 +4679,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4760,13 +4715,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4775,13 +4730,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4792,18 +4747,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4815,13 +4770,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4872,13 +4827,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4887,13 +4842,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4902,13 +4857,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4918,7 +4873,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4927,18 +4882,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4986,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -5001,13 +4958,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -5016,9 +4973,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5026,31 +4983,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5076,13 +5033,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5100,13 +5057,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5115,24 +5072,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5140,31 +5097,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5190,13 +5147,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5214,13 +5171,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5229,38 +5186,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5269,16 +5226,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5302,13 +5263,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5326,7 +5285,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5341,16 +5300,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5358,18 +5317,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5378,16 +5337,16 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5438,28 +5397,28 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5468,45 +5427,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5542,40 +5499,40 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5584,9 +5541,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5594,33 +5551,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5644,13 +5603,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5668,13 +5627,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5683,24 +5642,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5708,7 +5667,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5717,23 +5676,21 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5758,13 +5715,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5782,10 +5739,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5794,63 +5751,61 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5874,29 +5829,31 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5908,19 +5865,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5928,7 +5885,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5948,25 +5905,29 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
@@ -6008,7 +5969,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6020,16 +5981,16 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -6040,18 +6001,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6060,19 +6021,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6110,40 +6071,40 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6154,7 +6115,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6165,7 +6126,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6177,26 +6138,24 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6238,13 +6197,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6256,10 +6215,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6270,7 +6229,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6290,19 +6249,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6350,7 +6311,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6362,16 +6323,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6382,18 +6343,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6402,21 +6363,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6452,40 +6415,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6496,7 +6459,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6519,26 +6482,26 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6580,7 +6543,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6598,10 +6561,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6612,7 +6575,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6635,22 +6598,22 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6670,13 +6633,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6694,7 +6657,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6709,16 +6672,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6726,7 +6689,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6743,30 +6706,34 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q43" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>44</v>
@@ -6808,7 +6775,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6823,13 +6790,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6838,23 +6805,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6863,18 +6830,18 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6898,13 +6865,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6922,7 +6887,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6937,24 +6902,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6974,23 +6939,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -7038,7 +6999,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7050,16 +7011,16 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7070,18 +7031,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7090,23 +7051,21 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7142,40 +7101,40 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7186,7 +7145,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7197,7 +7156,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7209,22 +7168,24 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7244,13 +7205,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7268,13 +7229,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7283,16 +7244,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7300,7 +7261,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7317,32 +7278,26 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7386,7 +7341,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7398,59 +7353,59 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>119</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7476,61 +7431,63 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7550,19 +7507,23 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7610,7 +7571,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7622,16 +7583,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7642,18 +7603,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7662,19 +7623,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7712,40 +7673,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7756,7 +7717,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7767,7 +7728,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7779,26 +7740,24 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7840,13 +7799,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7858,10 +7817,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7872,7 +7831,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7892,19 +7851,21 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7952,7 +7913,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7964,16 +7925,16 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7984,18 +7945,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -8004,21 +7965,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8054,40 +8017,40 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8098,7 +8061,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8121,19 +8084,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8182,7 +8145,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8200,10 +8163,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8212,23 +8175,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8237,16 +8200,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8272,13 +8235,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8296,16 +8259,16 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
@@ -8314,21 +8277,21 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8351,24 +8314,24 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>44</v>
@@ -8410,7 +8373,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8428,10 +8391,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>317</v>
+        <v>381</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8440,9 +8403,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8450,13 +8413,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8465,18 +8428,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>383</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>385</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8524,10 +8485,10 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>52</v>
@@ -8539,28 +8500,28 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8579,20 +8540,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8640,7 +8597,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8655,28 +8612,28 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>402</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8686,7 +8643,7 @@
         <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>44</v>
@@ -8695,20 +8652,16 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8756,7 +8709,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8771,35 +8724,35 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>
@@ -8811,17 +8764,15 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8846,13 +8797,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8870,16 +8821,16 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>64</v>
@@ -8888,25 +8839,25 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>391</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>370</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8916,7 +8867,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -8925,18 +8876,16 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8984,7 +8933,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8999,28 +8948,28 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9039,15 +8988,17 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9096,10 +9047,10 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -9111,28 +9062,28 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9142,7 +9093,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
@@ -9151,15 +9102,17 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>409</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9184,13 +9137,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>446</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9208,7 +9161,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9223,35 +9176,35 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>416</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>53</v>
@@ -9263,15 +9216,17 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9320,13 +9275,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9335,24 +9290,24 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>426</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9363,10 +9318,10 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>44</v>
@@ -9375,13 +9330,13 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9408,13 +9363,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9432,13 +9387,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9453,32 +9408,32 @@
         <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>450</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9487,13 +9442,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9544,13 +9499,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9559,35 +9514,35 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>441</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>444</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>446</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>53</v>
@@ -9599,16 +9554,16 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>447</v>
+        <v>156</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9634,13 +9589,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9658,13 +9613,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9673,38 +9628,38 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>455</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>44</v>
@@ -9713,16 +9668,16 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>135</v>
+        <v>481</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9748,13 +9703,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>462</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9772,13 +9727,13 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
@@ -9787,28 +9742,28 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>468</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9818,26 +9773,24 @@
         <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9886,7 +9839,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9901,28 +9854,28 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>496</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9932,24 +9885,26 @@
         <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9974,13 +9929,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>480</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9998,7 +9953,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10013,16 +9968,16 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>44</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10030,7 +9985,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10053,15 +10008,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10110,7 +10067,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10128,13 +10085,13 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>509</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>466</v>
+        <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10142,11 +10099,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>44</v>
+        <v>512</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10165,18 +10122,20 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10200,13 +10159,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>129</v>
+        <v>371</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10224,7 +10183,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10239,24 +10198,24 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>492</v>
+        <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>44</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10270,26 +10229,24 @@
         <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10338,7 +10295,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10353,24 +10310,24 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>502</v>
+        <v>375</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>495</v>
+        <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>44</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10381,25 +10338,25 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>505</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10450,13 +10407,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10465,13 +10422,13 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>508</v>
+        <v>44</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>509</v>
+        <v>375</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>44</v>
@@ -10480,13 +10437,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>512</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10496,7 +10453,7 @@
         <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>44</v>
@@ -10505,16 +10462,16 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10564,7 +10521,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10579,591 +10536,23 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11173,7 +10562,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -1946,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2034,77 +2034,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -1261,7 +1261,10 @@
 </t>
   </si>
   <si>
-    <t>Details of the nursing activity</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Type of medication usage - use one code that provide the best detail</t>
   </si>
   <si>
     <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
@@ -1277,6 +1280,10 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:coding.system}
+</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1284,6 +1291,60 @@
   </si>
   <si>
     <t>NTE</t>
+  </si>
+  <si>
+    <t>InadequateAdherence</t>
+  </si>
+  <si>
+    <t>Details of the nursing activity</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-annex81-inadequate-adherence</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.system</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.version</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.display</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail.text</t>
+  </si>
+  <si>
+    <t>InadequateAdherenceLink</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-annex81-inadequate-adherence-link</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link</t>
   </si>
   <si>
     <t>ServiceRequest.quantity[x]</t>
@@ -2123,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2132,8 +2193,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.09765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2156,7 +2217,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="96.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -8458,7 +8519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>401</v>
       </c>
@@ -8468,7 +8529,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>403</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
@@ -8486,13 +8547,13 @@
         <v>191</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8518,28 +8579,26 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>401</v>
@@ -8551,7 +8610,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8560,7 +8619,7 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>386</v>
@@ -8572,23 +8631,25 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8597,18 +8658,18 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>412</v>
+        <v>191</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8632,13 +8693,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8656,16 +8715,16 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8674,21 +8733,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8696,28 +8755,28 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>418</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>419</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>420</v>
+        <v>172</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8768,10 +8827,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8780,38 +8839,38 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>174</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8820,18 +8879,20 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>428</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>429</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8868,65 +8929,65 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>426</v>
+        <v>179</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>433</v>
+        <v>174</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8935,16 +8996,20 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>438</v>
+        <v>302</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8992,13 +9057,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9007,24 +9072,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>442</v>
+        <v>308</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>443</v>
+        <v>309</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9038,22 +9103,22 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>447</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>448</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>449</v>
+        <v>172</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9080,13 +9145,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9104,7 +9169,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>446</v>
+        <v>173</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9116,7 +9181,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9125,49 +9190,51 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>452</v>
+        <v>174</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>455</v>
+        <v>151</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>456</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>457</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9204,55 +9271,55 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>454</v>
+        <v>179</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9262,7 +9329,7 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9271,18 +9338,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>466</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>467</v>
+        <v>313</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>468</v>
+        <v>314</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9291,7 +9360,7 @@
         <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -9330,7 +9399,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>318</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9345,28 +9414,28 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>471</v>
+        <v>319</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>472</v>
+        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9376,7 +9445,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9385,16 +9454,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>477</v>
+        <v>322</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>479</v>
+        <v>324</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9420,13 +9489,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9444,7 +9513,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9459,38 +9528,38 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>483</v>
+        <v>326</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>484</v>
+        <v>327</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9499,18 +9568,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>488</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>329</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9558,13 +9627,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>486</v>
+        <v>333</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9573,16 +9642,16 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>494</v>
+        <v>335</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9590,7 +9659,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9601,7 +9670,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9613,16 +9682,18 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>496</v>
+        <v>337</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>497</v>
+        <v>338</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9646,13 +9717,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9670,13 +9741,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9688,13 +9759,13 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>500</v>
+        <v>342</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9702,7 +9773,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>501</v>
+        <v>426</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9713,7 +9784,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9725,16 +9796,20 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>496</v>
+        <v>345</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9782,13 +9857,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>501</v>
+        <v>349</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9800,21 +9875,21 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>504</v>
+        <v>351</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>427</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9825,10 +9900,10 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9837,18 +9912,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>506</v>
+        <v>353</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9872,13 +9949,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9896,13 +9973,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9911,38 +9988,40 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>512</v>
+        <v>358</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>513</v>
+        <v>359</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9951,16 +10030,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>516</v>
+        <v>191</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>518</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>519</v>
+        <v>406</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9986,13 +10065,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10010,7 +10087,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>515</v>
+        <v>401</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10019,30 +10096,30 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>522</v>
+        <v>386</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10053,7 +10130,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10065,13 +10142,13 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>524</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>172</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10122,28 +10199,28 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>523</v>
+        <v>173</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>529</v>
+        <v>174</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10152,13 +10229,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>530</v>
+        <v>417</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>531</v>
+        <v>151</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10168,7 +10245,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10177,16 +10254,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>532</v>
+        <v>132</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>534</v>
+        <v>177</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>535</v>
+        <v>154</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10224,19 +10301,19 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>530</v>
+        <v>179</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10248,16 +10325,16 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>538</v>
+        <v>174</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10268,7 +10345,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10291,18 +10368,20 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>540</v>
+        <v>302</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>541</v>
+        <v>303</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>542</v>
+        <v>304</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10350,7 +10429,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>539</v>
+        <v>307</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10368,10 +10447,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>544</v>
+        <v>308</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>545</v>
+        <v>309</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10380,45 +10459,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>546</v>
+        <v>419</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>548</v>
+        <v>171</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10442,13 +10517,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10466,43 +10541,43 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>546</v>
+        <v>173</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>554</v>
+        <v>174</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10512,7 +10587,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10521,15 +10596,17 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>558</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10566,19 +10643,19 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>556</v>
+        <v>179</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10590,27 +10667,27 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>561</v>
+        <v>174</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10618,13 +10695,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10633,16 +10710,20 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>313</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10651,7 +10732,7 @@
         <v>79</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>79</v>
@@ -10690,7 +10771,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>563</v>
+        <v>318</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10708,10 +10789,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>566</v>
+        <v>320</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10722,7 +10803,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10733,7 +10814,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -10742,19 +10823,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>568</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>569</v>
+        <v>322</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>570</v>
+        <v>323</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>571</v>
+        <v>324</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10804,13 +10885,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>567</v>
+        <v>325</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10819,23 +10900,2745 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="X97" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="Y97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10845,7 +13648,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -1433,16 +1433,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1456,6 +1459,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2184,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11713,7 +11719,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>456</v>
       </c>
@@ -11723,7 +11729,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>87</v>
@@ -11738,13 +11744,13 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11783,16 +11789,14 @@
         <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="AB84" s="2"/>
       <c r="AC84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>456</v>
@@ -11810,32 +11814,34 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>87</v>
@@ -11850,13 +11856,13 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11883,13 +11889,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11907,7 +11913,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11922,28 +11928,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11962,13 +11968,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11995,13 +12001,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12019,7 +12025,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12034,32 +12040,32 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>87</v>
@@ -12074,17 +12080,15 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12133,7 +12137,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12148,32 +12152,32 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>87</v>
@@ -12188,16 +12192,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>191</v>
+        <v>488</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12223,13 +12227,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12247,7 +12251,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12262,35 +12266,35 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>88</v>
@@ -12302,16 +12306,16 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>508</v>
+        <v>191</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12337,13 +12341,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12361,13 +12365,13 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12376,28 +12380,28 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12407,7 +12411,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12416,15 +12420,17 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>191</v>
+        <v>510</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12449,13 +12455,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12473,7 +12479,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12488,16 +12494,16 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12505,7 +12511,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12528,13 +12534,13 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>522</v>
+        <v>191</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12561,13 +12567,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12585,7 +12591,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12606,18 +12612,18 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12631,7 +12637,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12640,17 +12646,15 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>191</v>
+        <v>524</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12675,13 +12679,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12699,7 +12703,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12714,24 +12718,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12745,7 +12749,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12754,16 +12758,16 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>536</v>
+        <v>191</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12789,13 +12793,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12813,7 +12817,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12828,16 +12832,16 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12845,7 +12849,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12865,18 +12869,20 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -12925,7 +12931,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -12940,28 +12946,28 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12971,7 +12977,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -12980,17 +12986,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13039,7 +13043,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13054,13 +13058,13 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13069,13 +13073,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13085,25 +13089,25 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13153,7 +13157,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13168,13 +13172,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13183,13 +13187,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13199,7 +13203,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13208,20 +13212,18 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>191</v>
+        <v>562</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13245,13 +13247,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13269,7 +13271,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13287,25 +13289,25 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13321,19 +13323,23 @@
         <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>577</v>
+        <v>191</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13357,13 +13363,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13381,7 +13387,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13396,24 +13402,24 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>412</v>
+        <v>566</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13424,7 +13430,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -13433,16 +13439,16 @@
         <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>579</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13493,13 +13499,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13508,24 +13514,24 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13536,29 +13542,27 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>588</v>
+        <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13607,13 +13611,13 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13622,23 +13626,137 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK100" t="s" s="2">
+      <c r="M101" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AL101" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13648,7 +13766,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3674" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -1433,19 +1433,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1459,9 +1456,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2190,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11719,7 +11713,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>456</v>
       </c>
@@ -11729,7 +11723,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>87</v>
@@ -11744,13 +11738,13 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11789,14 +11783,16 @@
         <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AB84" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
         <v>456</v>
@@ -11814,34 +11810,32 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AL84" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>87</v>
@@ -11856,13 +11850,13 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11889,13 +11883,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11913,7 +11907,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11928,28 +11922,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11968,13 +11962,13 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12001,13 +11995,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12025,7 +12019,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12040,32 +12034,32 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>87</v>
@@ -12080,15 +12074,17 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12137,7 +12133,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12152,32 +12148,32 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>87</v>
@@ -12192,16 +12188,16 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>488</v>
+        <v>191</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12227,13 +12223,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12251,7 +12247,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12266,35 +12262,35 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>88</v>
@@ -12306,16 +12302,16 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>191</v>
+        <v>508</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12341,13 +12337,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12365,13 +12361,13 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12380,28 +12376,28 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AL89" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12411,7 +12407,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12420,17 +12416,15 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>510</v>
+        <v>191</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12455,13 +12449,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12479,7 +12473,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12494,16 +12488,16 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12511,7 +12505,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12534,13 +12528,13 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>191</v>
+        <v>522</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12567,31 +12561,31 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12612,18 +12606,18 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12637,7 +12631,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12646,15 +12640,17 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>524</v>
+        <v>191</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12679,13 +12675,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12703,7 +12699,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12718,24 +12714,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12749,7 +12745,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12758,16 +12754,16 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>191</v>
+        <v>536</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12793,13 +12789,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12817,7 +12813,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12832,16 +12828,16 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12849,7 +12845,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12869,20 +12865,18 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -12931,7 +12925,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -12946,28 +12940,28 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12977,7 +12971,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -12986,15 +12980,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13043,7 +13039,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13058,13 +13054,13 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13073,13 +13069,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13089,25 +13085,25 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13157,7 +13153,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13172,13 +13168,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13187,13 +13183,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13203,7 +13199,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13212,18 +13208,20 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>562</v>
+        <v>191</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13247,13 +13245,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13271,7 +13269,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13289,25 +13287,25 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13323,23 +13321,19 @@
         <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>191</v>
+        <v>577</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13363,13 +13357,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13387,7 +13381,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13402,24 +13396,24 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>566</v>
+        <v>412</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13430,7 +13424,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -13439,16 +13433,16 @@
         <v>79</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>579</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13499,13 +13493,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13514,24 +13508,24 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13542,27 +13536,29 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>588</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -13611,13 +13607,13 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
@@ -13626,137 +13622,23 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>412</v>
+        <v>130</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN101">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13766,7 +13648,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1273,9 +1357,6 @@
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
@@ -1653,7 +1734,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1687,7 +1768,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2184,7 +2265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3161,7 +3242,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3377,13 +3458,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3392,10 +3471,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3404,13 +3483,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3461,19 +3540,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3482,7 +3561,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3493,24 +3572,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3519,17 +3598,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3565,19 +3640,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3598,7 +3673,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3609,7 +3684,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3617,31 +3692,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3649,7 +3724,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3679,59 +3754,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3743,20 +3818,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3781,10 +3854,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3793,25 +3866,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3820,32 +3891,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3860,13 +3933,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3893,13 +3966,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3917,43 +3988,45 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3963,7 +4036,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3972,17 +4045,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4019,19 +4090,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4040,7 +4111,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4052,7 +4123,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4061,11 +4132,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4074,32 +4147,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4123,13 +4192,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4147,28 +4216,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4177,11 +4246,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4193,29 +4264,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4239,13 +4308,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4263,28 +4332,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4295,55 +4364,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4379,28 +4448,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4411,7 +4480,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4419,13 +4488,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4434,16 +4503,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4457,7 +4526,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4481,25 +4550,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4508,26 +4575,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4548,15 +4617,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4605,13 +4676,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4620,24 +4691,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4657,20 +4728,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4719,7 +4788,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4731,16 +4800,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4751,11 +4820,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4771,19 +4840,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4821,19 +4890,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4845,16 +4914,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4865,7 +4934,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4876,30 +4945,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4923,13 +4994,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4947,13 +5018,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4962,13 +5033,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4979,18 +5050,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5002,16 +5073,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5035,13 +5110,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5059,13 +5134,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5074,13 +5149,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5091,18 +5166,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5114,28 +5189,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5171,13 +5250,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5186,13 +5265,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5201,23 +5280,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5226,20 +5305,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5251,7 +5328,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5287,7 +5364,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5302,13 +5379,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5317,9 +5394,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5327,32 +5404,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5377,13 +5452,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5401,10 +5476,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5416,24 +5491,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5441,7 +5516,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5450,22 +5525,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5491,13 +5566,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5515,10 +5590,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5530,24 +5605,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5555,13 +5630,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5570,20 +5645,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5607,11 +5680,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5629,7 +5704,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5644,16 +5719,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5661,7 +5736,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5672,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5681,18 +5756,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5741,28 +5818,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5773,11 +5850,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5793,20 +5870,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5843,19 +5918,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5867,16 +5942,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5887,11 +5962,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5910,20 +5985,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5971,7 +6042,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5986,13 +6057,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6001,13 +6072,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6017,25 +6088,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6083,7 +6158,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6095,16 +6170,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6113,41 +6188,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6173,63 +6248,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6237,7 +6312,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6246,32 +6321,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6289,13 +6362,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6313,10 +6386,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6328,24 +6401,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6353,13 +6426,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6368,18 +6441,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6403,13 +6478,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6427,13 +6500,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6445,13 +6518,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6459,7 +6532,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6479,27 +6552,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6541,7 +6612,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6553,16 +6624,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6573,18 +6644,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6593,21 +6664,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6643,40 +6714,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6687,7 +6758,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6698,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6710,19 +6781,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6771,13 +6842,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6789,10 +6860,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6803,7 +6874,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6823,23 +6894,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6887,7 +6954,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6899,16 +6966,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6919,18 +6986,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6939,25 +7006,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6977,55 +7044,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7100,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7050,35 +7117,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7119,7 +7184,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7134,13 +7199,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7149,23 +7214,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7174,16 +7239,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7209,11 +7274,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7231,7 +7298,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7246,24 +7313,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7283,25 +7350,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7343,7 +7412,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7355,16 +7424,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7375,18 +7444,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7395,21 +7464,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7445,40 +7514,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7489,7 +7558,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7500,7 +7569,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7512,19 +7581,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7573,13 +7642,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7591,10 +7660,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7605,7 +7674,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7625,19 +7694,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7685,7 +7758,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7697,16 +7770,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7717,18 +7790,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7737,25 +7810,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7775,55 +7848,55 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7831,7 +7904,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7848,30 +7921,32 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7915,7 +7990,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7930,13 +8005,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7945,23 +8020,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7970,16 +8045,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8005,13 +8080,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8029,7 +8102,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8044,24 +8117,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8081,27 +8154,25 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8143,7 +8214,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8155,16 +8226,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8175,18 +8246,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8195,21 +8266,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8245,40 +8316,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8289,7 +8360,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8300,7 +8371,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8312,19 +8383,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8373,13 +8444,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8391,10 +8462,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8405,7 +8476,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8425,23 +8496,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8489,7 +8556,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8501,16 +8568,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8521,39 +8588,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8579,21 +8646,23 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AB56" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8601,7 +8670,7 @@
         <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8610,46 +8679,44 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8658,18 +8725,20 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8693,11 +8762,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8715,16 +8786,16 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8733,21 +8804,21 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8767,18 +8838,20 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8827,7 +8900,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8839,16 +8912,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8859,18 +8932,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8879,27 +8952,27 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8929,40 +9002,40 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8973,7 +9046,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8984,7 +9057,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -8996,19 +9069,17 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9057,13 +9128,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9075,10 +9146,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9089,7 +9160,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9109,19 +9180,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9169,7 +9244,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9181,16 +9256,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9201,18 +9276,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9221,21 +9296,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9271,40 +9348,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>179</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9315,21 +9392,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9338,20 +9415,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>313</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>314</v>
+        <v>432</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9360,7 +9435,7 @@
         <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -9375,40 +9450,38 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9417,35 +9490,37 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>320</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9454,16 +9529,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9489,13 +9564,11 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9513,16 +9586,16 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9531,21 +9604,21 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9565,21 +9638,19 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9627,7 +9698,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9639,16 +9710,16 @@
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9659,18 +9730,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9679,21 +9750,21 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9729,40 +9800,40 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9773,7 +9844,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9784,7 +9855,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9796,19 +9867,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9857,13 +9928,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9875,10 +9946,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9960,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9909,23 +9980,19 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9973,7 +10040,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9985,16 +10052,16 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10003,43 +10070,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>406</v>
+        <v>189</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10065,29 +10130,31 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10096,30 +10163,30 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10127,7 +10194,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
@@ -10139,19 +10206,23 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10160,7 +10231,7 @@
         <v>79</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>79</v>
@@ -10199,7 +10270,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10211,16 +10282,16 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10231,18 +10302,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10251,19 +10322,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10301,40 +10372,40 @@
         <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10345,7 +10416,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10356,7 +10427,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10368,19 +10439,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10429,13 +10498,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10447,10 +10516,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10530,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10481,19 +10550,21 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>172</v>
+        <v>365</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10541,7 +10612,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>173</v>
+        <v>367</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10553,16 +10624,16 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10573,18 +10644,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10593,21 +10664,23 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>176</v>
+        <v>372</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10643,40 +10716,40 @@
         <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>179</v>
+        <v>376</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10687,7 +10760,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10695,7 +10768,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10710,19 +10783,19 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10732,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>79</v>
@@ -10771,7 +10844,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10789,10 +10862,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10801,23 +10874,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10826,16 +10901,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>323</v>
+        <v>432</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10861,13 +10936,11 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10885,16 +10958,16 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -10903,21 +10976,21 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>326</v>
+        <v>438</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10937,21 +11010,19 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10999,7 +11070,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11011,16 +11082,16 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11031,18 +11102,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11051,21 +11122,21 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11101,40 +11172,40 @@
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11216,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11156,7 +11227,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11168,19 +11239,19 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11229,13 +11300,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11247,10 +11318,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11261,7 +11332,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11281,23 +11352,19 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11345,7 +11412,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11357,16 +11424,16 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11377,18 +11444,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11397,21 +11464,21 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>433</v>
+        <v>207</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11447,40 +11514,40 @@
         <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>431</v>
+        <v>154</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11489,9 +11556,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11505,7 +11572,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11514,16 +11581,20 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>438</v>
+        <v>101</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11532,7 +11603,7 @@
         <v>79</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>79</v>
@@ -11571,10 +11642,10 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>87</v>
@@ -11586,28 +11657,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>442</v>
+        <v>346</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>443</v>
+        <v>347</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11626,15 +11697,17 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>448</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11683,7 +11756,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11698,28 +11771,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11729,7 +11802,7 @@
         <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11738,16 +11811,18 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>458</v>
+        <v>107</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>459</v>
+        <v>356</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>460</v>
+        <v>357</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11795,7 +11870,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11810,24 +11885,24 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>463</v>
+        <v>362</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11841,7 +11916,7 @@
         <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11850,16 +11925,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>467</v>
+        <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>468</v>
+        <v>364</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>469</v>
+        <v>365</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11883,13 +11960,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11907,7 +11984,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11925,25 +12002,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>472</v>
+        <v>369</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11953,7 +12030,7 @@
         <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -11962,16 +12039,20 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>476</v>
+        <v>371</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12019,7 +12100,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>474</v>
+        <v>376</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12034,38 +12115,38 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>480</v>
+        <v>377</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>481</v>
+        <v>378</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12074,18 +12155,20 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>486</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>487</v>
+        <v>380</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>488</v>
+        <v>381</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12133,7 +12216,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>484</v>
+        <v>384</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12148,28 +12231,28 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>491</v>
+        <v>385</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>492</v>
+        <v>386</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12179,7 +12262,7 @@
         <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12188,18 +12271,18 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12223,13 +12306,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12247,7 +12330,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12262,16 +12345,16 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12279,18 +12362,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>88</v>
@@ -12302,17 +12385,15 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12361,13 +12442,13 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12376,35 +12457,35 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>513</v>
+        <v>468</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12416,13 +12497,13 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>191</v>
+        <v>474</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12449,13 +12530,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12473,13 +12554,13 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12488,38 +12569,38 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12528,13 +12609,13 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12585,13 +12666,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12600,24 +12681,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12628,7 +12709,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12640,17 +12721,15 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>191</v>
+        <v>493</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12675,13 +12754,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12699,13 +12778,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12714,38 +12793,38 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12754,17 +12833,15 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12813,13 +12890,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12828,55 +12905,57 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -12925,13 +13004,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -12940,35 +13019,35 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>88</v>
@@ -12977,19 +13056,19 @@
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>552</v>
+        <v>162</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13015,13 +13094,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13039,13 +13118,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13054,28 +13133,28 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13085,7 +13164,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13094,16 +13173,16 @@
         <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13153,7 +13232,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13168,28 +13247,28 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13199,7 +13278,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13208,20 +13287,16 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13245,13 +13320,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13269,7 +13344,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13287,21 +13362,21 @@
         <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13315,22 +13390,22 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J98" t="s" s="2">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13381,7 +13456,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13396,24 +13471,24 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13424,7 +13499,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -13436,15 +13511,17 @@
         <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13469,13 +13546,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13493,13 +13570,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13508,16 +13585,16 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>412</v>
+        <v>558</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -13525,7 +13602,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13545,19 +13622,19 @@
         <v>79</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13607,7 +13684,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13622,23 +13699,817 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK100" t="s" s="2">
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AK107" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL100" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AL107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13648,7 +14519,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="625">
   <si>
     <t>Property</t>
   </si>
@@ -425,6 +425,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -592,6 +595,19 @@
   </si>
   <si>
     <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2265,7 +2281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3242,7 +3258,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3257,13 +3273,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3302,17 +3318,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3324,7 +3340,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3347,7 +3363,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3369,16 +3385,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3428,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3437,19 +3453,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3460,7 +3476,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3486,10 +3502,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3540,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3561,7 +3577,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3572,7 +3588,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3595,13 +3611,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3640,19 +3656,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3664,7 +3680,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3684,7 +3700,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3710,13 +3726,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3724,7 +3740,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3766,7 +3782,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3798,7 +3814,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3821,13 +3837,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3854,10 +3870,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3866,17 +3882,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3908,10 +3924,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3933,13 +3949,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3966,11 +3982,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3988,7 +4004,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4023,7 +4039,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4045,13 +4061,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4102,7 +4118,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4111,10 +4127,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4137,7 +4153,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4159,13 +4175,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4216,7 +4232,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4225,10 +4241,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4251,14 +4267,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4273,16 +4289,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4332,7 +4348,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4341,10 +4357,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4362,45 +4378,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4448,7 +4462,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4457,10 +4471,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4480,11 +4494,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4494,27 +4508,29 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4550,17 +4566,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4572,31 +4590,29 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4605,10 +4621,10 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4617,16 +4633,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4664,19 +4680,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4691,26 +4705,28 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4728,18 +4744,20 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4788,50 +4806,50 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4843,17 +4861,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4890,31 +4906,31 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4923,7 +4939,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4934,43 +4950,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4994,52 +5008,52 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5050,7 +5064,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5067,25 +5081,25 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5110,13 +5124,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5134,7 +5148,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5152,10 +5166,10 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5166,7 +5180,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5174,7 +5188,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5189,32 +5203,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5226,13 +5240,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5250,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5268,10 +5282,10 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5282,7 +5296,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5305,30 +5319,32 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5364,7 +5380,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5382,10 +5398,10 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5396,7 +5412,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5404,7 +5420,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5419,15 +5435,17 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5440,7 +5458,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5476,7 +5494,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5494,10 +5512,10 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5508,7 +5526,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5531,17 +5549,15 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5590,7 +5606,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5608,10 +5624,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5622,7 +5638,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5633,7 +5649,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5645,16 +5661,16 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5704,13 +5720,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5719,13 +5735,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5736,7 +5752,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5759,16 +5775,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5818,7 +5834,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5833,13 +5849,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5854,7 +5870,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5873,15 +5889,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5945,13 +5963,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5962,11 +5980,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5985,13 +6003,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6042,7 +6060,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6057,38 +6075,38 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6097,20 +6115,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6158,13 +6172,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6173,13 +6187,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6190,15 +6204,15 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6207,24 +6221,26 @@
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6248,13 +6264,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6272,10 +6288,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6287,24 +6303,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6318,7 +6334,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>88</v>
@@ -6330,13 +6346,13 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6362,13 +6378,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6386,7 +6402,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6401,24 +6417,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6432,29 +6448,27 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6478,11 +6492,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6500,13 +6516,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6515,24 +6531,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6540,31 +6556,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6588,13 +6608,11 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6612,31 +6630,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6644,18 +6662,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6667,17 +6685,15 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6714,31 +6730,31 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
@@ -6747,7 +6763,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6758,11 +6774,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6778,23 +6794,21 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6830,19 +6844,19 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6854,16 +6868,16 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6874,7 +6888,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6885,7 +6899,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6894,19 +6908,23 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6954,28 +6972,28 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6986,18 +7004,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -7009,17 +7027,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7056,31 +7072,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
@@ -7089,7 +7105,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7100,18 +7116,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7120,29 +7136,27 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
@@ -7172,40 +7186,40 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7230,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7239,24 +7253,26 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>79</v>
@@ -7298,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7316,10 +7332,10 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7330,7 +7346,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7353,24 +7369,24 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7412,7 +7428,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7430,10 +7446,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7444,7 +7460,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7467,24 +7483,24 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7526,7 +7542,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7544,10 +7560,10 @@
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7558,7 +7574,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7581,19 +7597,17 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7642,7 +7656,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7660,10 +7674,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7674,7 +7688,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7697,19 +7711,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7758,7 +7772,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7776,10 +7790,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7790,7 +7804,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7813,66 +7827,68 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7887,16 +7903,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7904,7 +7920,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7921,31 +7937,27 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
@@ -7966,13 +7978,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7990,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8005,62 +8017,66 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>376</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8080,11 +8096,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8102,7 +8120,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8117,55 +8135,57 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8190,13 +8210,11 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8214,7 +8232,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>150</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8226,38 +8244,38 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8269,17 +8287,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8316,31 +8332,31 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8349,7 +8365,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8360,11 +8376,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8380,23 +8396,21 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8432,19 +8446,19 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8456,16 +8470,16 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8476,7 +8490,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8487,7 +8501,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8496,19 +8510,23 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8556,28 +8574,28 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8588,18 +8606,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8611,17 +8629,15 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8658,31 +8674,31 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8691,7 +8707,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8702,18 +8718,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8722,23 +8738,21 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8774,40 +8788,40 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8818,7 +8832,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8841,18 +8855,20 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8918,10 +8934,10 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8932,7 +8948,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8955,24 +8971,24 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -9014,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9032,10 +9048,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9046,7 +9062,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9069,24 +9085,24 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>79</v>
@@ -9128,7 +9144,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9146,10 +9162,10 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9160,7 +9176,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9183,19 +9199,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9244,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9262,10 +9276,10 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9276,7 +9290,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9299,19 +9313,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9360,7 +9374,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9378,10 +9392,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9392,21 +9406,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9415,18 +9429,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9450,38 +9466,40 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AB63" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9490,34 +9508,32 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9529,16 +9545,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9564,29 +9580,29 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="Y64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="AB64" s="2"/>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9595,7 +9611,7 @@
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9604,52 +9620,56 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9674,13 +9694,11 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9698,50 +9716,50 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9753,17 +9771,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9800,31 +9816,31 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9833,7 +9849,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9844,11 +9860,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9864,23 +9880,21 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9916,19 +9930,19 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9940,16 +9954,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9960,7 +9974,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9971,7 +9985,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9980,19 +9994,23 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10040,28 +10058,28 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10072,18 +10090,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -10095,17 +10113,15 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10142,31 +10158,31 @@
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10175,7 +10191,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10186,18 +10202,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10206,23 +10222,21 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10231,7 +10245,7 @@
         <v>79</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>79</v>
@@ -10258,40 +10272,40 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10302,7 +10316,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10310,7 +10324,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10325,18 +10339,20 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10345,7 +10361,7 @@
         <v>79</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>79</v>
@@ -10384,7 +10400,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10402,10 +10418,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10416,7 +10432,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10439,18 +10455,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10498,7 +10514,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10516,10 +10532,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10530,7 +10546,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10553,17 +10569,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10612,7 +10628,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10630,10 +10646,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10644,7 +10660,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10667,19 +10683,17 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10728,7 +10742,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10746,10 +10760,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10760,7 +10774,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10783,19 +10797,19 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10844,7 +10858,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10862,10 +10876,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10874,25 +10888,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10901,18 +10913,20 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10936,11 +10950,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X76" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y76" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10958,16 +10974,16 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -10976,52 +10992,56 @@
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11046,13 +11066,11 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11070,50 +11088,50 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>150</v>
+        <v>433</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11125,17 +11143,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11172,31 +11188,31 @@
         <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11221,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11216,11 +11232,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11236,23 +11252,21 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11288,19 +11302,19 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11312,16 +11326,16 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11332,7 +11346,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11343,7 +11357,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11352,19 +11366,23 @@
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11412,28 +11430,28 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11444,18 +11462,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11467,17 +11485,15 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11514,31 +11530,31 @@
         <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11547,7 +11563,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11558,18 +11574,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
@@ -11578,23 +11594,21 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11603,7 +11617,7 @@
         <v>79</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>79</v>
@@ -11630,40 +11644,40 @@
         <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11674,7 +11688,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11682,7 +11696,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>87</v>
@@ -11697,18 +11711,20 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11717,7 +11733,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11756,7 +11772,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11774,10 +11790,10 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11788,7 +11804,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11811,18 +11827,18 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -11870,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11888,10 +11904,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11902,7 +11918,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11925,17 +11941,17 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11984,7 +12000,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12002,10 +12018,10 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12016,7 +12032,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12039,19 +12055,17 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12100,7 +12114,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12118,10 +12132,10 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12132,7 +12146,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12155,19 +12169,19 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12216,7 +12230,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12234,10 +12248,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12248,7 +12262,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12271,17 +12285,19 @@
         <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>458</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12330,7 +12346,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12348,21 +12364,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>438</v>
+        <v>390</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12370,13 +12386,13 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12385,16 +12401,18 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12442,10 +12460,10 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>87</v>
@@ -12457,38 +12475,38 @@
         <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AK89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12497,13 +12515,13 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12554,10 +12572,10 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>87</v>
@@ -12569,28 +12587,28 @@
         <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12600,7 +12618,7 @@
         <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12609,13 +12627,13 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12666,7 +12684,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12681,28 +12699,28 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12721,13 +12739,13 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12754,13 +12772,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12778,7 +12796,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12793,28 +12811,28 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12833,13 +12851,13 @@
         <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12866,13 +12884,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -12890,7 +12908,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12905,28 +12923,28 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12945,17 +12963,15 @@
         <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13004,7 +13020,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13019,32 +13035,32 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
@@ -13059,16 +13075,16 @@
         <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>162</v>
+        <v>517</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13094,13 +13110,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13118,7 +13134,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13133,35 +13149,35 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>88</v>
@@ -13173,16 +13189,16 @@
         <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13208,13 +13224,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13232,13 +13248,13 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -13247,28 +13263,28 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13278,7 +13294,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13287,15 +13303,17 @@
         <v>88</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>162</v>
+        <v>539</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13320,13 +13338,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13344,7 +13362,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13359,16 +13377,16 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13376,7 +13394,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13399,13 +13417,13 @@
         <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13432,13 +13450,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13456,7 +13474,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13477,18 +13495,18 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13502,7 +13520,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -13511,17 +13529,15 @@
         <v>88</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>162</v>
+        <v>553</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M99" t="s" s="2">
         <v>554</v>
       </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -13546,13 +13562,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13570,7 +13586,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13585,24 +13601,24 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13610,13 +13626,13 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>79</v>
@@ -13625,16 +13641,16 @@
         <v>88</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>562</v>
+        <v>163</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13660,13 +13676,13 @@
         <v>79</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -13684,7 +13700,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13699,16 +13715,16 @@
         <v>99</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -13716,7 +13732,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13736,18 +13752,20 @@
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="K101" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -13796,7 +13814,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13811,28 +13829,28 @@
         <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AK101" t="s" s="2">
+      <c r="AM101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13842,7 +13860,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
@@ -13851,17 +13869,15 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -13910,7 +13926,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -13925,13 +13941,13 @@
         <v>99</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
@@ -13940,13 +13956,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13956,25 +13972,25 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14024,7 +14040,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14039,28 +14055,28 @@
         <v>99</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AK103" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14070,7 +14086,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>79</v>
@@ -14079,20 +14095,18 @@
         <v>88</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>162</v>
+        <v>591</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="L104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>597</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14116,13 +14130,13 @@
         <v>79</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>79</v>
@@ -14140,7 +14154,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14158,25 +14172,25 @@
         <v>79</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14192,19 +14206,23 @@
         <v>79</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>603</v>
+        <v>163</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14228,13 +14246,13 @@
         <v>79</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14252,7 +14270,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14267,24 +14285,24 @@
         <v>99</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>608</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14295,7 +14313,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>88</v>
@@ -14304,16 +14322,16 @@
         <v>79</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>89</v>
+        <v>608</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14364,13 +14382,13 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -14379,10 +14397,10 @@
         <v>99</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>79</v>
+        <v>611</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>612</v>
@@ -14391,12 +14409,12 @@
         <v>79</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>79</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14407,19 +14425,19 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>614</v>
+        <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>615</v>
@@ -14427,9 +14445,7 @@
       <c r="L107" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>617</v>
-      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14478,13 +14494,13 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -14493,23 +14509,137 @@
         <v>99</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AK107" t="s" s="2">
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AL108" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN107">
+  <autoFilter ref="A1:AN108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14519,7 +14649,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing-annex81</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-annex81</t>
   </si>
   <si>
     <t>Version</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>
@@ -555,13 +555,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -571,7 +571,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -584,23 +584,20 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
   </si>
   <si>
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -608,6 +605,55 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+</t>
+  </si>
+  <si>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -758,7 +804,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1036,7 +1082,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1300,7 +1346,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-type-of-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-type-of-nursing</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1361,10 +1407,7 @@
 </t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Type of medication usage - use one code that provide the best detail</t>
+    <t>Details of the nursing activity</t>
   </si>
   <si>
     <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
@@ -1377,10 +1420,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:coding.system}
-</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1390,60 +1429,6 @@
     <t>NTE</t>
   </si>
   <si>
-    <t>InadequateAdherence</t>
-  </si>
-  <si>
-    <t>Details of the nursing activity</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-annex81-inadequate-adherence</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.system</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.version</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.display</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail.text</t>
-  </si>
-  <si>
-    <t>InadequateAdherenceLink</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-annex81-inadequate-adherence-link</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence-link</t>
-  </si>
-  <si>
     <t>ServiceRequest.quantity[x]</t>
   </si>
   <si>
@@ -1466,7 +1451,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1619,7 +1604,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1688,7 +1673,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -2104,7 +2089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2192,85 +2177,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2281,7 +2258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN108"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2290,8 +2267,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.09765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2314,7 +2291,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="96.4921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -4297,9 +4274,7 @@
       <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4383,17 +4358,17 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4405,13 +4380,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4492,45 +4467,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4578,7 +4551,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4587,7 +4560,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>139</v>
@@ -4599,7 +4572,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4608,20 +4581,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4630,20 +4605,18 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4680,17 +4653,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4699,33 +4674,33 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4738,26 +4713,24 @@
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4806,7 +4779,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4815,32 +4788,34 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4852,7 +4827,7 @@
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4861,13 +4836,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4918,19 +4893,19 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4939,7 +4914,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4950,11 +4925,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4967,7 +4942,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
@@ -4976,15 +4951,17 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5020,19 +4997,19 @@
         <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5053,7 +5030,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5064,7 +5041,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5075,32 +5052,30 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5124,37 +5099,35 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5163,26 +5136,28 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5203,20 +5178,18 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5240,13 +5213,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5264,13 +5237,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5279,24 +5252,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5304,7 +5277,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
@@ -5316,35 +5289,31 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5380,7 +5349,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5392,16 +5361,16 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5412,18 +5381,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5432,19 +5401,19 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5458,7 +5427,7 @@
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5482,40 +5451,40 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5495,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5543,22 +5512,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5582,13 +5555,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5606,7 +5579,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5624,10 +5597,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5638,7 +5611,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5661,18 +5634,20 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5696,13 +5671,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5713,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5727,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5760,10 +5735,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5775,30 +5750,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5834,13 +5811,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5849,13 +5826,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5843,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5874,10 +5851,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5889,16 +5866,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5912,7 +5889,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5948,13 +5925,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5963,13 +5940,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5980,18 +5957,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -6003,13 +5980,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6060,13 +6037,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -6075,13 +6052,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6092,18 +6069,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>79</v>
@@ -6115,15 +6092,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6172,13 +6151,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6187,13 +6166,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6202,23 +6181,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6227,20 +6206,18 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6288,13 +6265,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6303,13 +6280,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6318,9 +6295,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6328,31 +6305,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6378,13 +6355,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6402,13 +6379,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6417,57 +6394,55 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6492,13 +6467,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6516,13 +6491,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6531,38 +6506,38 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6571,20 +6546,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6608,11 +6579,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6630,7 +6603,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6645,28 +6618,28 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6676,25 +6649,29 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6742,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>151</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6754,16 +6731,16 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6772,41 +6749,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>213</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>320</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6832,63 +6809,63 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6896,35 +6873,33 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6948,13 +6923,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6972,13 +6947,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6987,24 +6962,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7012,31 +6987,35 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7060,13 +7039,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7084,31 +7061,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>152</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7116,18 +7093,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7139,17 +7116,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7186,31 +7161,31 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
@@ -7230,18 +7205,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7250,29 +7225,27 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>79</v>
@@ -7302,40 +7275,40 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7346,7 +7319,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7357,7 +7330,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7369,18 +7342,20 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7428,13 +7403,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7446,10 +7421,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7460,7 +7435,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7480,27 +7455,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>79</v>
@@ -7542,7 +7515,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7554,16 +7527,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7574,18 +7547,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7594,21 +7567,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7644,40 +7617,40 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>374</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7688,7 +7661,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7711,26 +7684,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7772,7 +7745,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7790,10 +7763,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7804,7 +7777,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7830,17 +7803,15 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7888,7 +7859,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7906,10 +7877,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7920,7 +7891,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7946,21 +7917,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7978,13 +7949,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8002,7 +7973,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8017,16 +7988,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8034,7 +8005,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8051,32 +8022,28 @@
         <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P51" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8120,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8135,13 +8102,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8150,23 +8117,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8175,18 +8142,20 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8210,11 +8179,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X52" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -8232,7 +8203,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8247,24 +8218,24 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8284,19 +8255,23 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8344,7 +8319,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>151</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8356,16 +8331,16 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8376,18 +8351,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8396,25 +8371,25 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>212</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8434,55 +8409,55 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>152</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8490,7 +8465,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8501,36 +8476,38 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8574,13 +8551,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8589,13 +8566,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8604,40 +8581,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8662,13 +8641,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8686,7 +8663,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8698,38 +8675,38 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>152</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8741,17 +8718,15 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8788,31 +8763,31 @@
         <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8832,18 +8807,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8852,23 +8827,21 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>346</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8904,40 +8877,40 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>352</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8948,7 +8921,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8959,7 +8932,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8971,18 +8944,20 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9030,13 +9005,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9048,10 +9023,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9062,7 +9037,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9082,27 +9057,25 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>362</v>
+        <v>150</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>79</v>
@@ -9144,7 +9117,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>365</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9156,16 +9129,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9176,18 +9149,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9196,21 +9169,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9246,40 +9219,40 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>374</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9290,7 +9263,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9313,19 +9286,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9374,7 +9347,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9392,10 +9365,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9406,7 +9379,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9432,17 +9405,15 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9490,7 +9461,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9508,10 +9479,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9522,21 +9493,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9545,24 +9516,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9580,38 +9551,40 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AB64" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9620,37 +9593,35 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>443</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B65" t="s" s="2">
         <v>444</v>
       </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9659,18 +9630,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9694,11 +9665,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9716,16 +9689,16 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>99</v>
@@ -9734,21 +9707,21 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9768,19 +9741,23 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>149</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9828,7 +9805,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>151</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9840,16 +9817,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>152</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9860,18 +9837,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9880,21 +9857,23 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>212</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9930,40 +9909,40 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9972,13 +9951,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9988,7 +9967,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9997,20 +9976,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>335</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10034,13 +10011,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10058,7 +10035,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>339</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10067,7 +10044,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10076,21 +10053,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>340</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10110,19 +10087,21 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>149</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>150</v>
+        <v>459</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10170,7 +10149,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>151</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10182,16 +10161,16 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>152</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10200,42 +10179,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>133</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>212</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10272,59 +10249,59 @@
         <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>152</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
@@ -10339,20 +10316,16 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>101</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10361,7 +10334,7 @@
         <v>79</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>79</v>
@@ -10400,7 +10373,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10415,28 +10388,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>351</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>352</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10446,7 +10419,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10455,17 +10428,15 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>354</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10514,7 +10485,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10529,24 +10500,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10560,7 +10531,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10569,18 +10540,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>361</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>362</v>
+        <v>494</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10604,13 +10573,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10628,7 +10597,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>365</v>
+        <v>491</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10646,35 +10615,35 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>367</v>
+        <v>497</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10683,18 +10652,16 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>369</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10742,7 +10709,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>372</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10757,38 +10724,38 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>373</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>374</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10797,20 +10764,18 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>377</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10858,7 +10823,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>381</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10873,38 +10838,38 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>382</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>383</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10913,20 +10878,18 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>385</v>
+        <v>522</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>386</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -10950,13 +10913,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10974,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>389</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10989,16 +10952,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>390</v>
+        <v>528</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11006,20 +10969,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>434</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11031,16 +10992,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
+        <v>536</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11066,11 +11027,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11088,7 +11051,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11097,30 +11060,30 @@
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>443</v>
+        <v>538</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>447</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11131,7 +11094,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11140,16 +11103,16 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11176,13 +11139,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11200,19 +11163,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>151</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11221,10 +11184,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>152</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11232,11 +11195,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11252,20 +11215,18 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>133</v>
+        <v>547</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>212</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11302,19 +11263,19 @@
         <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>155</v>
+        <v>546</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11326,7 +11287,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11335,18 +11296,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>152</v>
+        <v>549</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11354,13 +11315,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11369,20 +11330,18 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>334</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>335</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>336</v>
+        <v>552</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11406,13 +11365,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11430,7 +11389,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>339</v>
+        <v>550</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11445,16 +11404,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>340</v>
+        <v>557</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>341</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11462,7 +11421,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11473,7 +11432,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11482,18 +11441,20 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>561</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>149</v>
+        <v>562</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11542,31 +11503,31 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>151</v>
+        <v>560</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>152</v>
+        <v>567</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11574,11 +11535,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11597,17 +11558,15 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>133</v>
+        <v>569</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>212</v>
+        <v>570</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11644,19 +11603,19 @@
         <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>155</v>
+        <v>568</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11668,16 +11627,16 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>152</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11686,45 +11645,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>452</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>101</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>345</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>346</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11733,7 +11690,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -11772,13 +11729,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>350</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -11787,13 +11744,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>351</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>352</v>
+        <v>583</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11804,7 +11761,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11815,7 +11772,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -11827,16 +11784,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>585</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>354</v>
+        <v>586</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>355</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>356</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11886,13 +11843,13 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>357</v>
+        <v>584</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
@@ -11904,10 +11861,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>359</v>
+        <v>590</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11916,23 +11873,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>455</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11941,17 +11898,19 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>363</v>
+        <v>596</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11976,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12000,13 +11959,13 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -12018,21 +11977,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>366</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>367</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>456</v>
+        <v>601</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12043,30 +12002,28 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>602</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>369</v>
+        <v>603</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>370</v>
+        <v>604</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>371</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12114,13 +12071,13 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>372</v>
+        <v>601</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
@@ -12129,24 +12086,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>608</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12160,7 +12117,7 @@
         <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12169,20 +12126,16 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>376</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12230,7 +12183,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>381</v>
+        <v>608</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12248,10 +12201,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>383</v>
+        <v>611</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12262,7 +12215,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>612</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12273,7 +12226,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12282,23 +12235,21 @@
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>613</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>385</v>
+        <v>614</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>386</v>
+        <v>615</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12346,13 +12297,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>389</v>
+        <v>612</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12361,2285 +12312,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>391</v>
+        <v>618</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN108" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN108">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14649,7 +12338,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI107">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2258,7 +2265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4923,45 +4930,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5009,7 +5014,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5018,7 +5023,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5030,7 +5035,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5041,11 +5046,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5055,27 +5060,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5111,17 +5118,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5133,31 +5142,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5166,10 +5173,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5178,16 +5185,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5225,19 +5232,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5252,26 +5257,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5289,18 +5296,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5349,50 +5358,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5404,17 +5413,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5451,31 +5458,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5495,43 +5502,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5555,52 +5560,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5611,7 +5616,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5628,25 +5633,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5671,13 +5676,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5695,7 +5700,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5713,10 +5718,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5727,7 +5732,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5735,7 +5740,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5750,32 +5755,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5787,13 +5792,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5811,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5829,10 +5834,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5848,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5866,30 +5871,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5925,7 +5932,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5943,10 +5950,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5957,7 +5964,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5965,7 +5972,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5980,15 +5987,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6001,7 +6010,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6037,7 +6046,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6055,10 +6064,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6069,7 +6078,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6092,17 +6101,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6151,7 +6158,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6169,10 +6176,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6183,7 +6190,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6194,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6206,16 +6213,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6265,13 +6272,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6280,13 +6287,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6297,7 +6304,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6320,16 +6327,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6379,7 +6386,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6394,13 +6401,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6409,13 +6416,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6425,7 +6432,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6434,15 +6441,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6491,7 +6500,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6506,13 +6515,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6521,13 +6530,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6537,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6546,13 +6555,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6603,7 +6612,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6618,13 +6627,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6633,23 +6642,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6658,20 +6667,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6719,13 +6724,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6734,13 +6739,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6751,15 +6756,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6768,24 +6773,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6809,13 +6816,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6833,10 +6840,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6848,24 +6855,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6891,13 +6898,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6923,13 +6930,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6947,7 +6954,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6962,24 +6969,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6996,26 +7003,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7039,11 +7044,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7061,13 +7068,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7076,24 +7083,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7101,31 +7108,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7149,13 +7160,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7173,31 +7182,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7205,18 +7214,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7228,17 +7237,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7275,31 +7282,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7319,11 +7326,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7339,23 +7346,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7391,19 +7396,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7415,16 +7420,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7435,7 +7440,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7446,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7455,19 +7460,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7515,28 +7524,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7547,18 +7556,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7570,17 +7579,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7617,31 +7624,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7661,18 +7668,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7681,29 +7688,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7733,40 +7738,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7777,7 +7782,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7800,24 +7805,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7859,7 +7866,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7877,10 +7884,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7891,7 +7898,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7914,24 +7921,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7973,7 +7980,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7991,10 +7998,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8005,7 +8012,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8028,24 +8035,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8087,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8105,10 +8112,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8119,7 +8126,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8142,19 +8149,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8203,7 +8208,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8221,10 +8226,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8235,7 +8240,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8258,19 +8263,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8319,7 +8324,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8337,10 +8342,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8351,7 +8356,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8374,22 +8379,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8409,13 +8416,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8433,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8448,16 +8455,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8465,7 +8472,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8482,31 +8489,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8527,13 +8530,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8551,7 +8554,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8566,62 +8569,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8641,11 +8648,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8663,7 +8672,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8678,55 +8687,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8751,13 +8762,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8775,7 +8784,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8787,38 +8796,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8830,17 +8839,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8877,31 +8884,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8921,11 +8928,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8941,23 +8948,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8993,19 +8998,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9017,16 +9022,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9037,7 +9042,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9048,7 +9053,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9057,19 +9062,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9117,28 +9126,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9149,18 +9158,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9172,17 +9181,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9219,31 +9226,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9263,18 +9270,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9283,23 +9290,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9335,40 +9340,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9379,7 +9384,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9402,18 +9407,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9461,7 +9468,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9479,10 +9486,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9493,7 +9500,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9516,24 +9523,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9575,7 +9582,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9593,10 +9600,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9630,24 +9637,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9689,7 +9696,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9707,10 +9714,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9721,7 +9728,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9744,19 +9751,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9805,7 +9810,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9823,10 +9828,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9837,7 +9842,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9860,19 +9865,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9921,7 +9926,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9939,10 +9944,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9951,23 +9956,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9976,18 +9981,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10011,13 +10018,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10035,16 +10042,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10053,35 +10060,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>406</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10090,18 +10097,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10125,13 +10132,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10149,16 +10156,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10167,21 +10174,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10189,13 +10196,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10204,16 +10211,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10261,10 +10270,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10276,38 +10285,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10316,13 +10325,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10373,10 +10382,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10388,28 +10397,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10419,7 +10428,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10428,13 +10437,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10485,7 +10494,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10500,28 +10509,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10540,13 +10549,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10573,13 +10582,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10597,7 +10606,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10612,32 +10621,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10652,13 +10661,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10685,13 +10694,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10709,7 +10718,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10724,28 +10733,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10764,17 +10773,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10823,7 +10830,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10838,35 +10845,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10878,16 +10885,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10913,13 +10920,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10937,7 +10944,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10952,28 +10959,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10992,16 +10999,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11027,13 +11034,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11051,13 +11058,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11066,38 +11073,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11106,15 +11113,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11139,13 +11148,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11163,7 +11172,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11178,16 +11187,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11195,7 +11204,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11218,13 +11227,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11251,13 +11260,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11275,7 +11284,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11296,18 +11305,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11315,13 +11324,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11330,17 +11339,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>549</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11365,13 +11372,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11389,7 +11396,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11404,24 +11411,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11429,13 +11436,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11444,16 +11451,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11479,13 +11486,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11503,7 +11510,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11518,16 +11525,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11535,7 +11542,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11555,18 +11562,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11615,7 +11624,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11630,28 +11639,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11661,7 +11670,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11670,17 +11679,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11729,7 +11736,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11744,13 +11751,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11759,13 +11766,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11775,25 +11782,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11843,7 +11850,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11858,13 +11865,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11873,13 +11880,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11889,7 +11896,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11898,20 +11905,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11935,13 +11940,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11959,7 +11964,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11977,25 +11982,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12011,19 +12016,23 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>602</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12047,13 +12056,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12071,7 +12080,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12086,24 +12095,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>455</v>
+        <v>591</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12114,7 +12123,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12123,16 +12132,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12183,13 +12192,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12198,24 +12207,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12226,29 +12235,27 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>613</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12297,13 +12304,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12312,23 +12319,137 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12338,7 +12459,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2265,7 +2258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4930,43 +4923,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5014,7 +5009,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5023,7 +5018,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5035,7 +5030,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5046,11 +5041,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5060,29 +5055,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5118,19 +5111,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5142,29 +5133,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5173,10 +5166,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5185,16 +5178,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5232,17 +5225,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5257,28 +5252,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5296,20 +5289,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5358,50 +5349,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5413,15 +5404,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5458,31 +5451,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5502,41 +5495,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5560,52 +5555,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5616,7 +5611,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5633,25 +5628,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5676,13 +5671,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5700,7 +5695,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5718,10 +5713,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5732,7 +5727,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5740,7 +5735,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5755,32 +5750,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5792,13 +5787,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5816,7 +5811,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5834,10 +5829,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5848,7 +5843,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5871,32 +5866,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5932,7 +5925,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5950,10 +5943,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5964,7 +5957,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5972,7 +5965,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5987,17 +5980,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6010,7 +6001,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6046,7 +6037,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6064,10 +6055,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6078,7 +6069,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6101,15 +6092,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6158,7 +6151,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6176,10 +6169,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6190,7 +6183,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6201,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6213,16 +6206,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6272,13 +6265,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6287,13 +6280,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6304,7 +6297,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6327,16 +6320,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6386,7 +6379,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6401,13 +6394,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6416,13 +6409,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6432,7 +6425,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6441,17 +6434,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6500,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6515,13 +6506,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6530,13 +6521,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6546,7 +6537,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6555,13 +6546,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6612,7 +6603,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6627,13 +6618,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6642,23 +6633,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6667,16 +6658,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6724,13 +6719,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6739,13 +6734,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6756,15 +6751,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6773,26 +6768,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6816,13 +6809,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6840,10 +6833,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6855,24 +6848,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6898,13 +6891,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6930,13 +6923,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6954,7 +6947,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6969,24 +6962,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7003,24 +6996,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7044,13 +7039,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7068,13 +7061,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7083,24 +7076,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7108,35 +7101,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7160,11 +7149,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7182,31 +7173,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7214,18 +7205,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7237,15 +7228,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7282,31 +7275,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7326,11 +7319,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7346,21 +7339,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7396,19 +7391,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7420,16 +7415,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7440,7 +7435,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7451,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7460,23 +7455,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7524,28 +7515,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7556,18 +7547,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7579,15 +7570,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7624,31 +7617,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7668,18 +7661,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7688,27 +7681,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7738,40 +7733,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7782,7 +7777,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7805,26 +7800,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7866,7 +7859,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7884,10 +7877,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7891,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7921,24 +7914,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7980,7 +7973,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7998,10 +7991,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8012,7 +8005,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8035,24 +8028,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8094,7 +8087,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8112,10 +8105,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8126,7 +8119,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8149,17 +8142,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8208,7 +8203,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8226,10 +8221,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8240,7 +8235,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8263,19 +8258,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8324,7 +8319,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8342,10 +8337,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8356,7 +8351,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8379,24 +8374,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8416,13 +8409,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8440,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8455,16 +8448,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8472,7 +8465,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8489,27 +8482,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8530,13 +8527,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8554,7 +8551,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8569,66 +8566,62 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8648,13 +8641,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8672,7 +8663,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8687,57 +8678,55 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8762,11 +8751,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8784,7 +8775,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8796,38 +8787,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8839,15 +8830,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8884,31 +8877,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8928,11 +8921,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8948,21 +8941,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8998,19 +8993,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9022,16 +9017,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9042,7 +9037,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9053,7 +9048,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9062,23 +9057,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9126,28 +9117,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9158,18 +9149,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9181,15 +9172,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9226,31 +9219,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9270,18 +9263,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9290,21 +9283,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9340,40 +9335,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9384,7 +9379,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9407,20 +9402,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9468,7 +9461,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9486,10 +9479,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9500,7 +9493,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9523,24 +9516,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9582,7 +9575,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9600,10 +9593,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9637,24 +9630,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9696,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9714,10 +9707,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9728,7 +9721,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9751,17 +9744,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9810,7 +9805,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9828,10 +9823,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9842,7 +9837,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9865,19 +9860,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9926,7 +9921,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9944,10 +9939,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9956,23 +9951,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9981,20 +9976,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10018,13 +10011,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10042,16 +10035,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10060,35 +10053,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10097,18 +10090,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10132,13 +10125,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10156,16 +10149,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10174,21 +10167,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10196,13 +10189,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10211,18 +10204,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10270,10 +10261,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10285,38 +10276,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10325,13 +10316,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10382,10 +10373,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10397,28 +10388,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10428,7 +10419,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10437,13 +10428,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10494,7 +10485,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10509,28 +10500,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10549,13 +10540,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10582,13 +10573,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10606,7 +10597,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10621,32 +10612,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10661,13 +10652,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10694,13 +10685,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10718,7 +10709,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10733,28 +10724,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10773,15 +10764,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10830,7 +10823,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10845,35 +10838,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10885,16 +10878,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10920,13 +10913,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10944,7 +10937,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10959,28 +10952,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10999,16 +10992,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11034,13 +11027,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11058,13 +11051,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11073,38 +11066,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11113,17 +11106,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11148,13 +11139,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11172,7 +11163,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11187,16 +11178,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11204,7 +11195,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11227,13 +11218,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11260,31 +11251,31 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11305,18 +11296,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11324,13 +11315,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11339,15 +11330,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11372,13 +11365,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11396,7 +11389,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11411,24 +11404,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11436,13 +11429,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11451,16 +11444,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>561</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11486,13 +11479,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11510,7 +11503,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11525,16 +11518,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11542,7 +11535,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11562,20 +11555,18 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11624,7 +11615,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11639,28 +11630,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11670,7 +11661,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11679,15 +11670,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11736,7 +11729,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11751,13 +11744,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11766,13 +11759,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11782,25 +11775,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11850,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11865,13 +11858,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11880,13 +11873,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11896,7 +11889,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11905,18 +11898,20 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>587</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11940,13 +11935,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11964,7 +11959,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11982,25 +11977,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12016,23 +12011,19 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>602</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12056,13 +12047,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12080,7 +12071,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12095,24 +12086,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>591</v>
+        <v>455</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12123,7 +12114,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12132,16 +12123,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>604</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12192,13 +12183,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12207,24 +12198,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12235,27 +12226,29 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>613</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12304,13 +12297,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12319,137 +12312,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN89">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12459,7 +12338,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -1883,6 +1883,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2258,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11989,7 +12014,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>601</v>
       </c>
@@ -12002,10 +12027,10 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12014,13 +12039,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>602</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>603</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>604</v>
+        <v>150</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12071,70 +12096,72 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>601</v>
+        <v>151</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>606</v>
+        <v>152</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>609</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12171,40 +12198,40 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>608</v>
+        <v>155</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>611</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12215,9 +12242,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12226,7 +12255,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12238,17 +12267,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12297,7 +12324,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>612</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12309,26 +12336,596 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="L92" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12338,7 +12935,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4051,7 +4054,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4069,7 +4072,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4141,7 +4144,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4155,7 +4158,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4177,13 +4180,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4269,7 +4272,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4291,13 +4294,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4383,7 +4386,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4405,13 +4408,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4497,7 +4500,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4519,13 +4522,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4611,7 +4614,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4633,13 +4636,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4725,7 +4728,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4747,13 +4750,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4839,7 +4842,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4861,13 +4864,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4950,11 +4953,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4976,16 +4979,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5034,7 +5037,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5066,7 +5069,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5089,16 +5092,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5136,7 +5139,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -5146,7 +5149,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5161,27 +5164,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5203,16 +5206,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5262,7 +5265,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5277,24 +5280,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5406,11 +5409,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5432,13 +5435,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5520,7 +5523,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5546,16 +5549,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5580,13 +5583,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5604,7 +5607,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5625,7 +5628,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5636,7 +5639,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5662,16 +5665,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5699,10 +5702,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5720,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5738,10 +5741,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5778,29 +5781,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5836,7 +5839,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5854,10 +5857,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5894,13 +5897,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5914,7 +5917,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5950,7 +5953,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5968,10 +5971,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6005,13 +6008,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6062,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6080,10 +6083,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6094,7 +6097,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6117,16 +6120,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6176,7 +6179,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6194,10 +6197,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6208,7 +6211,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6231,16 +6234,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6290,7 +6293,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6305,13 +6308,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6322,7 +6325,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6348,13 +6351,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6404,7 +6407,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6419,13 +6422,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6436,11 +6439,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6459,13 +6462,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6516,7 +6519,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6531,13 +6534,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6548,11 +6551,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6571,13 +6574,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6628,7 +6631,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6643,13 +6646,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6660,11 +6663,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6683,19 +6686,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6744,7 +6747,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6759,13 +6762,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6776,7 +6779,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6802,13 +6805,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6834,13 +6837,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6858,7 +6861,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6873,24 +6876,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6916,13 +6919,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6948,13 +6951,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6972,7 +6975,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6987,16 +6990,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7004,7 +7007,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7030,16 +7033,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7068,7 +7071,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7086,7 +7089,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7104,13 +7107,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7118,7 +7121,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7230,11 +7233,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7256,13 +7259,13 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7344,7 +7347,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7367,19 +7370,19 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7428,7 +7431,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7446,10 +7449,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7460,7 +7463,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7572,11 +7575,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7598,13 +7601,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7686,7 +7689,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7712,23 +7715,23 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7770,7 +7773,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7788,10 +7791,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7828,13 +7831,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7884,7 +7887,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7902,10 +7905,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7916,7 +7919,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7942,21 +7945,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7998,7 +8001,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8016,10 +8019,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8056,14 +8059,14 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8112,7 +8115,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8130,10 +8133,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8144,7 +8147,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8167,19 +8170,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8228,7 +8231,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8246,10 +8249,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8286,16 +8289,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8344,7 +8347,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8362,10 +8365,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8379,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8402,10 +8405,10 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8413,7 +8416,7 @@
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8434,13 +8437,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8458,7 +8461,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8473,16 +8476,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8490,7 +8493,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8513,70 +8516,70 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8591,13 +8594,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8608,11 +8611,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8634,13 +8637,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8666,11 +8669,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8691,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8703,24 +8706,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8832,11 +8835,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8858,13 +8861,13 @@
         <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8946,7 +8949,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8969,19 +8972,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9030,7 +9033,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9048,10 +9051,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9174,11 +9177,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9200,13 +9203,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9288,7 +9291,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9314,16 +9317,16 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9372,7 +9375,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9390,10 +9393,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9404,7 +9407,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9430,13 +9433,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9486,7 +9489,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9504,10 +9507,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9544,21 +9547,21 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9600,7 +9603,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9618,10 +9621,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9632,7 +9635,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9658,14 +9661,14 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9714,7 +9717,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9732,10 +9735,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9769,19 +9772,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9833,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9848,10 +9851,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9862,7 +9865,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9888,16 +9891,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9946,7 +9949,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9964,10 +9967,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9978,11 +9981,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10004,13 +10007,13 @@
         <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10039,10 +10042,10 @@
         <v>166</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10060,7 +10063,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10069,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10078,21 +10081,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10115,17 +10118,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10174,7 +10177,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10192,10 +10195,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10206,7 +10209,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10229,13 +10232,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10286,7 +10289,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>87</v>
@@ -10301,28 +10304,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10341,13 +10344,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10398,7 +10401,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10413,28 +10416,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10453,13 +10456,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10510,7 +10513,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10525,24 +10528,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10565,13 +10568,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10601,10 +10604,10 @@
         <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10622,7 +10625,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10643,22 +10646,22 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10677,13 +10680,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10734,7 +10737,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10749,28 +10752,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10789,16 +10792,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10848,7 +10851,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10863,28 +10866,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10906,13 +10909,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10941,10 +10944,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10962,7 +10965,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10977,16 +10980,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10994,11 +10997,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11017,16 +11020,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11076,7 +11079,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11091,16 +11094,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11108,7 +11111,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11134,10 +11137,10 @@
         <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11167,10 +11170,10 @@
         <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11188,7 +11191,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11209,10 +11212,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11220,7 +11223,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11243,13 +11246,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11300,7 +11303,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11321,10 +11324,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11332,7 +11335,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11358,13 +11361,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11393,10 +11396,10 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11414,7 +11417,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11429,16 +11432,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11446,7 +11449,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11469,16 +11472,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11528,7 +11531,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11543,16 +11546,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11560,7 +11563,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11583,13 +11586,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11640,7 +11643,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11655,13 +11658,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11672,11 +11675,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11695,16 +11698,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11754,7 +11757,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11769,13 +11772,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11786,7 +11789,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11809,16 +11812,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11868,7 +11871,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11886,10 +11889,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11900,11 +11903,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11926,16 +11929,16 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11963,10 +11966,10 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11984,7 +11987,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12002,21 +12005,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12128,11 +12131,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12154,13 +12157,13 @@
         <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12242,10 +12245,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
@@ -12267,13 +12270,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12356,7 +12359,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12379,19 +12382,19 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12440,7 +12443,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12458,10 +12461,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12472,7 +12475,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12498,16 +12501,16 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12556,7 +12559,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12574,10 +12577,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12588,7 +12591,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12611,13 +12614,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12668,7 +12671,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12683,24 +12686,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12726,10 +12729,10 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12780,7 +12783,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12798,10 +12801,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12812,7 +12815,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12835,16 +12838,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12894,7 +12897,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12909,13 +12912,13 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2286,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4951,45 +4958,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5037,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5051,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5058,7 +5063,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5069,11 +5074,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5083,27 +5088,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5139,17 +5146,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5161,31 +5170,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5194,10 +5201,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5206,16 +5213,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5253,19 +5260,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5280,26 +5285,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5317,18 +5324,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5377,50 +5386,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5432,17 +5441,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5479,31 +5486,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5523,43 +5530,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5583,52 +5588,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5639,7 +5644,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5656,25 +5661,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5699,13 +5704,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5723,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5741,10 +5746,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5755,7 +5760,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5763,7 +5768,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5778,32 +5783,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5815,13 +5820,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5839,7 +5844,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5857,10 +5862,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5871,7 +5876,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5894,30 +5899,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5953,7 +5960,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5971,10 +5978,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5992,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5993,7 +6000,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6008,15 +6015,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6029,7 +6038,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6065,7 +6074,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6083,10 +6092,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6097,7 +6106,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6120,17 +6129,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6186,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6197,10 +6204,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6211,7 +6218,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6222,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6234,16 +6241,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6293,13 +6300,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6308,13 +6315,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6325,7 +6332,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6348,16 +6355,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6407,7 +6414,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6422,13 +6429,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6437,13 +6444,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6453,7 +6460,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6462,15 +6469,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6519,7 +6528,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6534,13 +6543,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6549,13 +6558,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6565,7 +6574,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6574,13 +6583,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6631,7 +6640,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6646,13 +6655,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6661,23 +6670,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6686,20 +6695,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6747,13 +6752,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6762,13 +6767,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6779,15 +6784,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6796,24 +6801,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6837,13 +6844,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6861,10 +6868,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6876,24 +6883,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6919,13 +6926,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6951,13 +6958,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6975,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6990,24 +6997,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7024,26 +7031,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7067,11 +7072,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7089,13 +7096,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7104,24 +7111,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7129,31 +7136,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7177,13 +7188,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7201,31 +7210,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7233,18 +7242,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7256,17 +7265,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7303,31 +7310,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7347,11 +7354,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7367,23 +7374,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7419,19 +7424,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7443,16 +7448,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7468,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7474,7 +7479,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7483,19 +7488,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7543,28 +7552,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7575,18 +7584,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7598,17 +7607,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7645,31 +7652,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7689,18 +7696,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7709,29 +7716,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7761,40 +7766,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7805,7 +7810,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7828,24 +7833,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7887,7 +7894,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7905,10 +7912,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7919,7 +7926,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7942,24 +7949,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8001,7 +8008,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8019,10 +8026,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8033,7 +8040,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8056,24 +8063,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8115,7 +8122,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8133,10 +8140,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8147,7 +8154,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8170,19 +8177,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8231,7 +8236,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8249,10 +8254,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8263,7 +8268,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8286,19 +8291,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8347,7 +8352,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8365,10 +8370,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8384,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8402,22 +8407,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8437,13 +8444,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8461,7 +8468,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8476,16 +8483,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8493,7 +8500,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8510,31 +8517,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8555,13 +8558,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8579,7 +8582,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8594,62 +8597,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8669,11 +8676,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8691,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8706,55 +8715,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8779,13 +8790,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8803,7 +8812,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8815,38 +8824,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8858,17 +8867,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8905,31 +8912,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8949,11 +8956,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8969,23 +8976,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9021,19 +9026,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9045,16 +9050,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9065,7 +9070,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9076,7 +9081,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9085,19 +9090,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9145,28 +9154,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9177,18 +9186,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9200,17 +9209,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9247,31 +9254,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9291,18 +9298,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9311,23 +9318,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9363,40 +9368,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9407,7 +9412,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9430,18 +9435,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9489,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9507,10 +9514,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9521,7 +9528,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9544,24 +9551,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9621,10 +9628,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9658,24 +9665,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9717,7 +9724,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9735,10 +9742,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9749,7 +9756,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9772,19 +9779,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9833,7 +9838,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9851,10 +9856,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9865,7 +9870,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9888,19 +9893,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9949,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9967,10 +9972,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9979,23 +9984,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10004,18 +10009,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10039,13 +10046,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10063,16 +10070,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10081,35 +10088,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10118,18 +10125,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10153,13 +10160,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10177,16 +10184,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10195,21 +10202,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10217,13 +10224,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10232,16 +10239,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10289,10 +10298,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10304,38 +10313,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10344,13 +10353,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10401,10 +10410,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10416,28 +10425,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10447,7 +10456,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10456,13 +10465,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10513,7 +10522,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10528,28 +10537,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10568,13 +10577,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10601,13 +10610,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10625,7 +10634,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10640,32 +10649,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10680,13 +10689,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10713,13 +10722,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10737,7 +10746,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10752,28 +10761,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10792,17 +10801,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10851,7 +10858,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10866,35 +10873,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10906,16 +10913,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>514</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10941,13 +10948,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10965,7 +10972,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10980,28 +10987,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11020,16 +11027,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11055,13 +11062,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11079,13 +11086,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11094,38 +11101,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11134,15 +11141,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>536</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11167,13 +11176,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11191,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11206,16 +11215,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11223,7 +11232,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11246,13 +11255,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11279,13 +11288,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11303,7 +11312,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11324,18 +11333,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11343,13 +11352,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11358,17 +11367,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>550</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11393,13 +11400,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11417,7 +11424,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11432,24 +11439,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11457,13 +11464,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11472,16 +11479,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>562</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11507,13 +11514,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11531,7 +11538,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11546,16 +11553,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11563,7 +11570,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11583,18 +11590,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11643,7 +11652,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11658,28 +11667,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11689,7 +11698,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11698,17 +11707,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11757,7 +11764,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11772,13 +11779,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11787,13 +11794,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11803,25 +11810,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11871,7 +11878,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11886,13 +11893,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11901,13 +11908,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11917,7 +11924,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11926,20 +11933,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>588</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11963,13 +11968,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11987,7 +11992,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12005,53 +12010,57 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>595</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>596</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>599</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12075,13 +12084,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12099,50 +12108,50 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>151</v>
+        <v>594</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>152</v>
+        <v>602</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12154,17 +12163,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12201,31 +12208,31 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12245,20 +12252,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12270,15 +12275,17 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>605</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>606</v>
+        <v>229</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12315,16 +12322,16 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE88" t="s" s="2">
         <v>155</v>
@@ -12348,7 +12355,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12359,9 +12366,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12370,7 +12379,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12379,23 +12388,19 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>349</v>
+        <v>607</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>350</v>
+        <v>608</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12443,7 +12448,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12455,16 +12460,16 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12475,7 +12480,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12486,7 +12491,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12498,19 +12503,19 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12559,13 +12564,13 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12577,10 +12582,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12589,9 +12594,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12602,28 +12607,32 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>611</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>612</v>
+        <v>402</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12671,13 +12680,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>610</v>
+        <v>406</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12686,24 +12695,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>615</v>
+        <v>408</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12714,7 +12723,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12723,16 +12732,16 @@
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>613</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12783,13 +12792,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12798,24 +12807,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12826,29 +12835,27 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>622</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12897,13 +12904,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12912,23 +12919,137 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AK93" t="s" s="2">
+      <c r="M94" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AL94" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12938,7 +13059,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2293,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5072,45 +5079,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5167,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5179,7 +5184,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5190,11 +5195,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5204,27 +5209,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5260,17 +5267,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5282,31 +5291,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5315,10 +5322,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5327,16 +5334,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5374,19 +5381,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5401,26 +5406,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5438,18 +5445,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5498,50 +5507,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5553,17 +5562,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5600,31 +5607,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5644,43 +5651,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5704,52 +5709,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5760,7 +5765,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5777,25 +5782,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5820,13 +5825,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5844,7 +5849,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5862,10 +5867,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5876,7 +5881,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5884,7 +5889,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5899,32 +5904,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5936,13 +5941,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5960,7 +5965,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5978,10 +5983,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5992,7 +5997,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6015,30 +6020,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6074,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6092,10 +6099,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6106,7 +6113,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6114,7 +6121,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6129,15 +6136,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6150,7 +6159,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6186,7 +6195,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6204,10 +6213,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6218,7 +6227,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6241,17 +6250,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6300,7 +6307,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6318,10 +6325,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6332,7 +6339,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6343,7 +6350,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6355,16 +6362,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6414,13 +6421,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6429,13 +6436,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6446,7 +6453,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6469,16 +6476,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6528,7 +6535,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6543,13 +6550,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6558,13 +6565,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6574,7 +6581,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6583,15 +6590,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6640,7 +6649,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6655,13 +6664,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6670,13 +6679,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6686,7 +6695,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6695,13 +6704,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6752,7 +6761,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6767,13 +6776,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6782,23 +6791,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6807,20 +6816,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6868,13 +6873,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6883,13 +6888,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6900,15 +6905,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6917,24 +6922,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6958,13 +6965,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6982,10 +6989,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6997,24 +7004,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7040,13 +7047,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7072,13 +7079,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7096,7 +7103,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7111,24 +7118,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7145,26 +7152,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7188,11 +7193,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7210,13 +7217,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7225,24 +7232,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7250,31 +7257,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7298,13 +7309,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7322,31 +7331,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7354,18 +7363,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7377,17 +7386,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7424,31 +7431,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7468,11 +7475,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7488,23 +7495,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7540,19 +7545,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7564,16 +7569,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7584,7 +7589,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7595,7 +7600,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7604,19 +7609,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7664,28 +7673,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7696,18 +7705,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7719,17 +7728,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7766,31 +7773,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7810,18 +7817,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7830,29 +7837,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7882,40 +7887,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7926,7 +7931,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7949,24 +7954,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8008,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8026,10 +8033,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8040,7 +8047,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8063,24 +8070,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8122,7 +8129,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8140,10 +8147,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8154,7 +8161,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8177,24 +8184,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8236,7 +8243,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8254,10 +8261,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8268,7 +8275,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8291,19 +8298,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8352,7 +8357,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8370,10 +8375,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8384,7 +8389,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8407,19 +8412,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8468,7 +8473,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8486,10 +8491,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8500,7 +8505,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8523,22 +8528,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8558,13 +8565,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8582,7 +8589,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8597,16 +8604,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8614,7 +8621,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8631,31 +8638,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8676,13 +8679,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8700,7 +8703,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8715,62 +8718,66 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8790,11 +8797,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8812,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8827,55 +8836,57 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8900,13 +8911,11 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8924,7 +8933,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8936,38 +8945,38 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8979,17 +8988,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9026,31 +9033,31 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9070,11 +9077,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9090,23 +9097,21 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9142,19 +9147,19 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9166,16 +9171,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9186,7 +9191,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9197,7 +9202,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9206,19 +9211,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9266,28 +9275,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9298,18 +9307,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9321,17 +9330,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9368,31 +9375,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9412,18 +9419,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9432,23 +9439,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9484,40 +9489,40 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9528,7 +9533,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9551,18 +9556,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9610,7 +9617,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9628,10 +9635,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9642,7 +9649,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9665,24 +9672,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9724,7 +9731,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9742,10 +9749,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9779,24 +9786,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9838,7 +9845,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9856,10 +9863,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9870,7 +9877,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9893,19 +9900,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9954,7 +9959,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9972,10 +9977,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9986,7 +9991,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10009,19 +10014,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10070,7 +10075,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10088,10 +10093,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10100,23 +10105,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10125,18 +10130,20 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10160,13 +10167,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10184,16 +10191,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10202,35 +10209,35 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10239,18 +10246,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10274,13 +10281,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10298,16 +10305,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10316,21 +10323,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10338,13 +10345,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10353,16 +10360,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10410,10 +10419,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10425,38 +10434,38 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10465,13 +10474,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10522,10 +10531,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10537,28 +10546,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10568,7 +10577,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10577,13 +10586,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10634,7 +10643,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10649,28 +10658,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10689,13 +10698,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10722,13 +10731,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10746,7 +10755,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10761,32 +10770,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10801,13 +10810,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10834,13 +10843,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10858,7 +10867,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10873,28 +10882,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10913,17 +10922,15 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10972,7 +10979,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10987,35 +10994,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11027,16 +11034,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>516</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11062,13 +11069,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11086,7 +11093,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11101,28 +11108,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11141,16 +11148,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>536</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11176,13 +11183,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11200,13 +11207,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11215,38 +11222,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11255,15 +11262,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>538</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11288,13 +11297,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11312,7 +11321,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11327,16 +11336,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11344,7 +11353,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11367,13 +11376,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>550</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11400,13 +11409,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11424,7 +11433,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11445,18 +11454,18 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11464,13 +11473,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11479,17 +11488,15 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>552</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11514,13 +11521,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11538,7 +11545,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11553,24 +11560,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11578,13 +11585,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11593,16 +11600,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>564</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11628,13 +11635,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11652,7 +11659,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11667,16 +11674,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11684,7 +11691,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11704,18 +11711,20 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11764,7 +11773,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11779,28 +11788,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>579</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11810,7 +11819,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11819,17 +11828,15 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11878,7 +11885,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11893,13 +11900,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11908,13 +11915,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11924,25 +11931,25 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11992,7 +11999,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12007,13 +12014,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12022,13 +12029,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12038,7 +12045,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12047,20 +12054,18 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>590</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12084,13 +12089,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12108,7 +12113,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12126,53 +12131,57 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>598</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12196,13 +12205,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12220,50 +12229,50 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>152</v>
+        <v>604</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12275,17 +12284,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12322,31 +12329,31 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12366,20 +12373,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12391,15 +12396,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>607</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>608</v>
+        <v>231</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12436,16 +12443,16 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>155</v>
@@ -12469,7 +12476,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12480,9 +12487,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12491,7 +12500,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12500,23 +12509,19 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>351</v>
+        <v>609</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>352</v>
+        <v>610</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12564,7 +12569,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12576,16 +12581,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12596,7 +12601,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12607,7 +12612,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12619,19 +12624,19 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12680,13 +12685,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12698,10 +12703,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12710,9 +12715,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12723,28 +12728,32 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>613</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>614</v>
+        <v>404</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12792,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>612</v>
+        <v>408</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12807,24 +12816,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>458</v>
+        <v>409</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>617</v>
+        <v>410</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12835,7 +12844,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -12844,16 +12853,16 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>615</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12904,13 +12913,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12919,24 +12928,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12947,29 +12956,27 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>624</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13018,13 +13025,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13033,23 +13040,137 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AK94" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AL95" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13059,7 +13180,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3450" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2300,7 +2316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4635,7 +4651,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4749,7 +4765,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4884,7 +4900,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4970,7 +4986,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4992,13 +5008,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5084,7 +5100,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5106,13 +5122,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5193,45 +5209,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5279,7 +5293,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5288,7 +5302,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5300,7 +5314,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5311,11 +5325,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5325,27 +5339,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5381,17 +5397,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5403,31 +5421,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5436,10 +5452,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5448,16 +5464,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5495,19 +5511,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5522,26 +5536,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5559,18 +5575,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5619,50 +5637,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5674,17 +5692,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5721,31 +5737,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5765,43 +5781,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5825,52 +5839,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5881,7 +5895,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5898,25 +5912,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5941,13 +5955,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5965,7 +5979,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5983,10 +5997,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5997,7 +6011,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6005,7 +6019,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6020,32 +6034,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6057,13 +6071,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6081,7 +6095,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6099,10 +6113,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6113,7 +6127,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6136,30 +6150,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6195,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6213,10 +6229,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6227,7 +6243,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6235,7 +6251,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6250,15 +6266,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6271,7 +6289,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6307,7 +6325,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6325,10 +6343,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6339,7 +6357,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6362,17 +6380,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6421,7 +6437,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6439,10 +6455,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6453,7 +6469,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6464,7 +6480,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6476,16 +6492,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6535,13 +6551,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6550,13 +6566,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6567,7 +6583,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6590,16 +6606,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6649,7 +6665,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6664,13 +6680,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6679,13 +6695,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6695,7 +6711,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6704,15 +6720,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6776,28 +6794,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6807,7 +6825,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6816,13 +6834,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6873,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6888,38 +6906,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6928,20 +6946,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6989,13 +7003,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7004,13 +7018,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7021,15 +7035,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7038,24 +7052,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7079,13 +7095,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7103,10 +7119,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7118,24 +7134,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7161,13 +7177,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7193,13 +7209,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7217,7 +7233,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7232,24 +7248,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7266,26 +7282,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7309,11 +7323,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7331,13 +7347,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7346,24 +7362,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7371,31 +7387,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7419,13 +7439,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7443,31 +7461,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7475,18 +7493,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7498,17 +7516,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7545,31 +7561,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7589,11 +7605,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7609,23 +7625,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7661,19 +7675,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7685,16 +7699,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7705,7 +7719,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7716,7 +7730,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7725,19 +7739,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7785,28 +7803,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7817,18 +7835,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7840,17 +7858,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7887,31 +7903,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7931,18 +7947,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7951,29 +7967,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8003,40 +8017,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8047,7 +8061,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8070,24 +8084,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8129,7 +8145,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8147,10 +8163,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8161,7 +8177,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8184,24 +8200,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8243,7 +8259,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8261,10 +8277,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8275,7 +8291,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8298,24 +8314,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8357,7 +8373,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8375,10 +8391,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8389,7 +8405,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8412,19 +8428,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8473,7 +8487,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8491,10 +8505,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8505,7 +8519,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8528,19 +8542,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8607,10 +8621,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8621,7 +8635,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8644,66 +8658,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8718,16 +8734,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8735,7 +8751,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8752,31 +8768,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8797,13 +8809,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8833,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8836,62 +8848,66 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8911,11 +8927,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8933,7 +8951,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8948,55 +8966,57 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9021,13 +9041,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9045,7 +9063,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9057,38 +9075,38 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9100,17 +9118,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9147,31 +9163,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9191,11 +9207,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9211,23 +9227,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9263,19 +9277,19 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9287,16 +9301,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9307,7 +9321,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9318,7 +9332,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9327,19 +9341,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9387,28 +9405,28 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9419,18 +9437,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9442,17 +9460,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9489,31 +9505,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9533,18 +9549,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9553,23 +9569,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9605,40 +9619,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9649,7 +9663,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9672,18 +9686,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9731,7 +9747,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9749,10 +9765,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9763,7 +9779,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9786,24 +9802,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9845,7 +9861,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9863,10 +9879,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9877,7 +9893,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9900,24 +9916,24 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9959,7 +9975,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9977,10 +9993,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9991,7 +10007,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10014,19 +10030,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10075,7 +10089,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10093,10 +10107,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10107,7 +10121,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10130,19 +10144,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10191,7 +10205,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10209,10 +10223,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10221,23 +10235,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10246,18 +10260,20 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10281,13 +10297,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10305,16 +10321,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10323,35 +10339,35 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10360,18 +10376,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10395,13 +10411,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10419,16 +10435,16 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10437,21 +10453,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10459,13 +10475,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10474,16 +10490,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10531,10 +10549,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10546,38 +10564,38 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10586,13 +10604,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10643,10 +10661,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10658,28 +10676,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10689,7 +10707,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10698,13 +10716,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10755,7 +10773,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10770,28 +10788,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10810,13 +10828,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10843,13 +10861,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10867,7 +10885,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10882,32 +10900,32 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
@@ -10922,13 +10940,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10955,13 +10973,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10979,7 +10997,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10994,28 +11012,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11034,17 +11052,15 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11093,7 +11109,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11108,35 +11124,35 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11148,16 +11164,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11183,13 +11199,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11207,7 +11223,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11222,28 +11238,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11262,16 +11278,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11297,13 +11313,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11321,13 +11337,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11336,38 +11352,38 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11376,15 +11392,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>543</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11409,13 +11427,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>549</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11433,7 +11451,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11448,16 +11466,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11465,7 +11483,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11488,13 +11506,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11521,13 +11539,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11545,7 +11563,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11566,18 +11584,18 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11585,13 +11603,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11600,17 +11618,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>557</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M82" t="s" s="2">
         <v>558</v>
       </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11635,13 +11651,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11659,7 +11675,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11674,24 +11690,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11699,13 +11715,13 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11714,16 +11730,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>566</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11749,13 +11765,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11773,7 +11789,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11788,16 +11804,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11805,7 +11821,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11825,18 +11841,20 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11885,7 +11903,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11900,28 +11918,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11931,7 +11949,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11940,17 +11958,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11999,7 +12015,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12014,13 +12030,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12029,13 +12045,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12045,25 +12061,25 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12113,7 +12129,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12128,28 +12144,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12159,7 +12175,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12168,20 +12184,18 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>595</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12205,13 +12219,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12229,7 +12243,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12247,53 +12261,57 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>603</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>606</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12317,13 +12335,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12341,50 +12359,50 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>151</v>
+        <v>601</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>152</v>
+        <v>609</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12396,17 +12414,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12443,31 +12459,31 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12487,20 +12503,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12512,15 +12526,17 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>609</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>610</v>
+        <v>236</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12557,16 +12573,16 @@
         <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>155</v>
@@ -12590,7 +12606,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12603,7 +12619,9 @@
       <c r="A91" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12612,7 +12630,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12621,23 +12639,19 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>353</v>
+        <v>614</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>354</v>
+        <v>615</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12685,7 +12699,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12697,16 +12711,16 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12717,7 +12731,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12728,7 +12742,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12740,19 +12754,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12801,13 +12815,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12819,10 +12833,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12831,9 +12845,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12844,28 +12858,32 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>615</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>616</v>
+        <v>409</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12913,13 +12931,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>614</v>
+        <v>413</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12928,24 +12946,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>619</v>
+        <v>415</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12956,7 +12974,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -12965,16 +12983,16 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>620</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13025,13 +13043,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13040,10 +13058,10 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>623</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>624</v>
@@ -13052,12 +13070,12 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13068,19 +13086,19 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>626</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>627</v>
@@ -13088,9 +13106,7 @@
       <c r="L95" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>629</v>
-      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13139,13 +13155,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13154,23 +13170,137 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13180,7 +13310,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -5125,10 +5131,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5214,7 +5220,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5236,10 +5242,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5325,11 +5331,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5351,16 +5357,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5409,7 +5415,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5464,16 +5470,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5511,7 +5517,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5521,7 +5527,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5536,27 +5542,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5578,16 +5584,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5637,7 +5643,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5652,24 +5658,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5781,11 +5787,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5807,13 +5813,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5895,7 +5901,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5921,16 +5927,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5955,13 +5961,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5985,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6000,7 +6006,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6011,7 +6017,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6037,16 +6043,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6074,10 +6080,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6095,7 +6101,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6113,10 +6119,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6133,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6153,29 +6159,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6211,7 +6217,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6229,10 +6235,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6243,7 +6249,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6269,13 +6275,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6289,7 +6295,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6325,7 +6331,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6343,10 +6349,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6357,7 +6363,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6380,13 +6386,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6437,7 +6443,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6455,10 +6461,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6469,7 +6475,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6492,16 +6498,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6551,7 +6557,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6569,10 +6575,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6583,7 +6589,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6606,16 +6612,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6665,7 +6671,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6680,13 +6686,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6697,7 +6703,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6723,13 +6729,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6779,7 +6785,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6794,13 +6800,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6811,11 +6817,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6834,13 +6840,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6891,7 +6897,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6906,13 +6912,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6923,11 +6929,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6946,13 +6952,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7003,7 +7009,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7018,13 +7024,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7035,11 +7041,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7058,19 +7064,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7119,7 +7125,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7134,13 +7140,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7151,7 +7157,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7177,13 +7183,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7209,13 +7215,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7233,7 +7239,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7248,24 +7254,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7291,13 +7297,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7323,13 +7329,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7347,7 +7353,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7362,16 +7368,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7379,7 +7385,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7405,16 +7411,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7443,7 +7449,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7461,7 +7467,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7479,13 +7485,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7493,7 +7499,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7605,11 +7611,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7631,13 +7637,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7719,7 +7725,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7742,19 +7748,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7803,7 +7809,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7821,10 +7827,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7835,7 +7841,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7947,11 +7953,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7973,13 +7979,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8061,7 +8067,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8087,23 +8093,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8145,7 +8151,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8163,10 +8169,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8203,13 +8209,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8259,7 +8265,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8277,10 +8283,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8291,7 +8297,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8317,21 +8323,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8379,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8391,10 +8397,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8405,7 +8411,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8431,14 +8437,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8493,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8505,10 +8511,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8519,7 +8525,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8542,19 +8548,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8603,7 +8609,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8621,10 +8627,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8635,7 +8641,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8661,16 +8667,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8719,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8737,10 +8743,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8751,7 +8757,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8777,10 +8783,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8788,7 +8794,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8809,13 +8815,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8839,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8848,16 +8854,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8865,7 +8871,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8888,70 +8894,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8966,13 +8972,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8983,11 +8989,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9009,13 +9015,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9041,11 +9047,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9063,7 +9069,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9078,24 +9084,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9207,11 +9213,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9233,13 +9239,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9321,7 +9327,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9344,19 +9350,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9405,7 +9411,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9423,10 +9429,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9437,7 +9443,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9549,11 +9555,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9575,13 +9581,13 @@
         <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9663,7 +9669,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9689,16 +9695,16 @@
         <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9747,7 +9753,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9765,10 +9771,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9785,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9805,13 +9811,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9861,7 +9867,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9879,10 +9885,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9893,7 +9899,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9919,21 +9925,21 @@
         <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9975,7 +9981,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9993,10 +9999,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10007,7 +10013,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10033,14 +10039,14 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10089,7 +10095,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10107,10 +10113,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10121,7 +10127,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10144,19 +10150,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10205,7 +10211,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10223,10 +10229,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10237,7 +10243,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10263,16 +10269,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10321,7 +10327,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10339,10 +10345,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10353,11 +10359,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10379,13 +10385,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10414,10 +10420,10 @@
         <v>166</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10435,7 +10441,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10444,7 +10450,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10453,21 +10459,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10490,17 +10496,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10549,7 +10555,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10567,10 +10573,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10581,7 +10587,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10604,13 +10610,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10661,7 +10667,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>87</v>
@@ -10676,28 +10682,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10716,13 +10722,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10773,7 +10779,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10788,28 +10794,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10828,13 +10834,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10885,7 +10891,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10900,24 +10906,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10940,13 +10946,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10976,10 +10982,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10997,7 +11003,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11018,22 +11024,22 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11052,13 +11058,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11109,7 +11115,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11124,28 +11130,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11164,16 +11170,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11223,7 +11229,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11238,28 +11244,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11281,13 +11287,13 @@
         <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11316,10 +11322,10 @@
         <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11337,7 +11343,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11352,16 +11358,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11369,11 +11375,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11392,16 +11398,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11451,7 +11457,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11466,16 +11472,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11483,7 +11489,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11509,10 +11515,10 @@
         <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11542,10 +11548,10 @@
         <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11563,7 +11569,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11584,10 +11590,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11595,7 +11601,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11618,13 +11624,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11675,7 +11681,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11696,10 +11702,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11707,7 +11713,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11733,13 +11739,13 @@
         <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11768,10 +11774,10 @@
         <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11789,7 +11795,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11804,16 +11810,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11821,7 +11827,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11844,16 +11850,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11903,7 +11909,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11918,16 +11924,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11935,7 +11941,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11958,13 +11964,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12015,7 +12021,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12030,13 +12036,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12047,11 +12053,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12070,16 +12076,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12129,7 +12135,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12144,13 +12150,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12161,7 +12167,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12184,16 +12190,16 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12243,7 +12249,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12261,10 +12267,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12275,11 +12281,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12301,16 +12307,16 @@
         <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12338,10 +12344,10 @@
         <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12359,7 +12365,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12377,21 +12383,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12503,11 +12509,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12529,13 +12535,13 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12617,10 +12623,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
@@ -12642,13 +12648,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12731,7 +12737,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12754,19 +12760,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12815,7 +12821,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12833,10 +12839,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12847,7 +12853,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12873,16 +12879,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12931,7 +12937,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12949,10 +12955,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -12963,7 +12969,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12986,13 +12992,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13043,7 +13049,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13058,24 +13064,24 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13101,10 +13107,10 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13155,7 +13161,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13173,10 +13179,10 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13187,7 +13193,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13210,16 +13216,16 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13269,7 +13275,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13284,13 +13290,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4204,7 +4204,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4774,7 +4774,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1712,11 +1712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2341,7 +2341,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -11386,7 +11386,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-annex81.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3197" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -287,200 +287,204 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -558,27 +562,24 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
-    <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
-    <t>Info about the other parties that have to take part in the prescription.</t>
+    <t>Other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -613,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,30 +624,17 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>The prescription must have left the draft status befor this moment</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -672,29 +660,6 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
-</t>
-  </si>
-  <si>
-    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1712,11 +1677,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitionerroles</t>
+    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1922,31 +1887,6 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>bodyLaterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
-</t>
-  </si>
-  <si>
-    <t>BeExtLaterality</t>
-  </si>
-  <si>
-    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2322,7 +2262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2332,43 +2272,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3540,13 +3480,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3597,7 +3537,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3558,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3629,7 +3569,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3700,7 +3640,7 @@
         <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
@@ -3709,7 +3649,7 @@
         <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3741,7 +3681,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3767,13 +3707,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3781,7 +3721,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3823,7 +3763,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3855,7 +3795,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3878,13 +3818,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3911,10 +3851,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3923,17 +3863,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3965,10 +3905,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3990,13 +3930,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4023,11 +3963,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -4045,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4080,7 +4020,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4090,7 +4030,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4102,13 +4042,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4180,7 +4120,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4204,7 +4144,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4657,7 +4597,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4774,7 +4714,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4906,7 +4846,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4987,43 +4927,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5071,7 +5013,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5080,7 +5022,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5092,7 +5034,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5101,13 +5043,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5116,7 +5056,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5125,18 +5065,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5173,19 +5115,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5194,33 +5134,33 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5233,24 +5173,26 @@
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5299,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5308,66 +5250,62 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5415,19 +5353,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5436,7 +5374,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5447,11 +5385,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5461,25 +5399,25 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5517,9 +5455,11 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5527,7 +5467,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5539,31 +5479,29 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5578,24 +5516,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5619,13 +5559,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5643,13 +5583,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5658,24 +5598,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5695,19 +5635,23 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5731,13 +5675,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5755,7 +5699,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5767,16 +5711,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5787,18 +5731,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5807,33 +5751,35 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5857,40 +5803,40 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5901,7 +5847,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5909,7 +5855,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5918,26 +5864,24 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5949,7 +5893,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5961,13 +5905,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5929,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6003,10 +5947,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6017,7 +5961,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6040,20 +5984,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6077,13 +6017,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6101,7 +6041,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6119,10 +6059,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6133,7 +6073,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6141,7 +6081,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6156,32 +6096,30 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6217,7 +6155,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6235,10 +6173,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6249,7 +6187,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6257,10 +6195,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6272,16 +6210,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6295,7 +6233,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6331,13 +6269,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6346,13 +6284,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6363,7 +6301,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6374,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6386,15 +6324,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6443,13 +6383,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6458,13 +6398,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6473,23 +6413,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6498,17 +6438,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6557,13 +6495,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6572,13 +6510,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6589,11 +6527,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6612,17 +6550,15 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6671,7 +6607,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6686,13 +6622,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6701,23 +6637,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6726,18 +6662,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6785,13 +6723,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6800,13 +6738,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6817,38 +6755,40 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6873,13 +6813,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6897,13 +6837,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6912,55 +6852,57 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6985,13 +6927,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7009,13 +6951,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7024,16 +6966,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7041,15 +6983,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7064,19 +7006,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7101,13 +7043,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7125,13 +7065,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7140,24 +7080,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7165,32 +7105,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7215,13 +7153,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7239,10 +7177,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7251,59 +7189,59 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7329,63 +7267,63 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7393,13 +7331,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7408,7 +7346,7 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>350</v>
@@ -7445,29 +7383,31 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7491,7 +7431,7 @@
         <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7522,13 +7462,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7579,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7540,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7615,7 +7555,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7637,13 +7577,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7684,7 +7624,7 @@
         <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
@@ -7693,7 +7633,7 @@
         <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7714,7 +7654,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7736,7 +7676,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7748,26 +7688,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7815,7 +7755,7 @@
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7861,18 +7801,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7921,7 +7863,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7933,16 +7875,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7953,18 +7895,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7973,27 +7915,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8023,40 +7965,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8067,7 +8009,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8090,26 +8032,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8151,7 +8091,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8169,10 +8109,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8183,7 +8123,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8206,18 +8146,20 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8265,7 +8207,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8283,10 +8225,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8297,7 +8239,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8320,24 +8262,26 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8379,7 +8323,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8397,10 +8341,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8411,7 +8355,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8434,22 +8378,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8469,13 +8413,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8493,7 +8437,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8508,16 +8452,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8525,7 +8469,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8542,30 +8486,32 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8609,7 +8555,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8624,13 +8570,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8639,23 +8585,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8664,20 +8610,18 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8701,13 +8645,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8725,7 +8667,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8740,24 +8682,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8777,25 +8719,23 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8815,13 +8755,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8839,7 +8779,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8851,19 +8791,19 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8871,49 +8811,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8945,40 +8881,40 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8987,23 +8923,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9012,18 +8948,20 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9047,11 +8985,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9069,13 +9009,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9084,24 +9024,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9124,13 +9064,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9181,7 +9121,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9202,7 +9142,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9213,11 +9153,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9239,13 +9179,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9286,7 +9226,7 @@
         <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
@@ -9295,7 +9235,7 @@
         <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9256,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9327,7 +9267,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9338,7 +9278,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9350,19 +9290,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9417,7 +9357,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9443,7 +9383,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9463,18 +9403,20 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9523,7 +9465,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9535,16 +9477,16 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9555,18 +9497,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9575,27 +9517,27 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9625,40 +9567,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9669,7 +9611,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9692,19 +9634,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9753,7 +9693,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9771,10 +9711,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9785,7 +9725,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9808,18 +9748,20 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9867,7 +9809,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9885,10 +9827,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9899,7 +9841,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9922,24 +9864,26 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9981,7 +9925,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9999,10 +9943,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10011,23 +9955,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10036,18 +9980,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10071,13 +10015,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10095,16 +10039,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10113,16 +10057,16 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -10150,19 +10094,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10211,7 +10153,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10229,10 +10171,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10241,9 +10183,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10251,13 +10193,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10266,20 +10208,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>464</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10327,10 +10265,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10342,38 +10280,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10382,17 +10320,15 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10417,13 +10353,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10441,43 +10377,43 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10487,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10496,18 +10432,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>472</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10555,7 +10489,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10570,24 +10504,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10595,7 +10529,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
@@ -10610,13 +10544,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10643,13 +10577,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10667,10 +10601,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10682,38 +10616,38 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10722,13 +10656,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10779,7 +10713,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10794,32 +10728,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10834,15 +10768,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10891,7 +10827,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10906,35 +10842,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10946,15 +10882,17 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>504</v>
+        <v>164</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10979,13 +10917,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11003,7 +10941,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11018,35 +10956,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11058,15 +10996,17 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11115,13 +11055,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11130,38 +11070,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11170,17 +11110,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>523</v>
+        <v>164</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11205,13 +11143,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11229,13 +11167,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11244,38 +11182,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>531</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11284,17 +11222,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>536</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11319,13 +11255,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11343,13 +11279,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11358,16 +11294,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11375,18 +11311,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11398,16 +11334,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>545</v>
+        <v>164</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11433,13 +11369,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11457,7 +11393,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11472,16 +11408,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11489,7 +11425,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11512,15 +11448,17 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>562</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11545,13 +11483,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11569,7 +11507,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11584,16 +11522,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11601,7 +11539,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11621,16 +11559,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11681,7 +11619,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11696,16 +11634,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11713,18 +11651,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11733,19 +11671,19 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>578</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11771,13 +11709,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>567</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11795,7 +11733,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11810,16 +11748,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11827,7 +11765,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11850,16 +11788,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11909,7 +11847,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11924,28 +11862,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11955,25 +11893,29 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>581</v>
+        <v>164</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11997,13 +11939,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12021,7 +11963,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12036,28 +11978,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12076,17 +12018,15 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12135,7 +12075,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12150,24 +12090,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>594</v>
+        <v>456</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12178,10 +12118,10 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12190,17 +12130,15 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>597</v>
+        <v>149</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12249,13 +12187,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12267,10 +12205,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>601</v>
+        <v>456</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12279,13 +12217,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12295,29 +12233,27 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12341,13 +12277,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12365,7 +12301,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12380,933 +12316,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>601</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN96">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13316,7 +12342,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
